--- a/data/fifteen_sec_dataset_combined.xlsx
+++ b/data/fifteen_sec_dataset_combined.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="12">
   <si>
     <t>WatchID</t>
   </si>
@@ -49,6 +49,12 @@
     <t>fpdf</t>
   </si>
   <si>
+    <t>Matin  - sanjay</t>
+  </si>
+  <si>
+    <t>Matin / Sanjay</t>
+  </si>
+  <si>
     <t>a</t>
   </si>
 </sst>
@@ -59,7 +65,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -92,6 +98,11 @@
       <sz val="9"/>
       <color rgb="FF595959"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -214,7 +225,1165 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1400" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1400" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Calibri"/>
+              </a:rPr>
+              <a:t>MVM</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>fifteen_sec_dataset_comparison!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>mvm</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="5b9bd5"/>
+            </a:solidFill>
+            <a:ln w="28440">
+              <a:solidFill>
+                <a:srgbClr val="5b9bd5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>fifteen_sec_dataset_comparison!$C$2:$C$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>8.61634624772928</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.64589811500325</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.3828990332577</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.58443138520237</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.52284033423879</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.37330761816166</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.1813759836158</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.5602243613911</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.8107417827089</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.1032408900409</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.5891138943856</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10.8216415179126</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10.5861553966405</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10.8486394545185</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10.7694339700121</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10.4001071184096</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10.5765626612099</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10.79233524461</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10.0122364004194</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10.0986934321772</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9.8738530805626</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9.75165938806811</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9.57815966578137</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9.54077260289385</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9.58229371729561</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9.97355964577885</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>10.2759148795389</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9.73520926472744</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>10.375883448419</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>10.3073872643831</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>9.65266707372911</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>9.76238474260823</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>9.30298613872564</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>9.65991914202684</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>9.35230111299436</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9.39489662718069</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9.72335690361885</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9.32570988843336</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>10.0482578745605</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>9.85148828260121</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>9.89244311351117</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>9.87545718021654</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>9.74140891033491</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>9.92974199275281</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>10.1060710551688</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>10.2298441772489</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>10.046368262461</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>10.0436759106415</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>9.93156420928596</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v/>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>fifteen_sec_dataset_comparison!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>mvm</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ed7d31"/>
+            </a:solidFill>
+            <a:ln w="28440">
+              <a:solidFill>
+                <a:srgbClr val="ed7d31"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>fifteen_sec_dataset_comparison!$K$2:$K$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>8.61634624783078</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.64589811507768</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.3828990336398</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.58443138541245</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.52284033435477</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.37330761824603</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.1813759838827</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.5602243615213</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.8107417828057</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.1032408901852</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.5891138946711</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10.8216415181257</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10.586155396692</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10.8486394545803</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10.7694339700701</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10.4001071187612</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10.5765626616341</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10.7923352451254</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10.0122364004846</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10.0986934322577</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9.87385308064986</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9.7516593881523</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9.57815966588437</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9.5407726029904</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9.58229371737259</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9.97355964585255</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>10.27591487968</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9.73520926480285</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>10.375883448777</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>10.3073872645795</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>9.65266707378227</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>9.76238474265376</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>9.30298613879271</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>9.6599191420816</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>9.35230111304838</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9.39489662723118</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9.72335690366563</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9.32570988852323</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>10.0482578746681</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>9.85148828265643</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>9.89244311356103</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>9.87545718027071</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>9.74140891038357</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>9.92974199280129</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>10.1060710552883</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>10.2298441773145</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>10.0463682626599</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>10.0436759110302</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>9.9315642094902</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>8.76900245189471</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="0"/>
+        <c:axId val="28661048"/>
+        <c:axId val="17606961"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="28661048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="d9d9d9"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="17606961"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="17606961"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="d9d9d9"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="6480">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="28661048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:solidFill>
+        <a:srgbClr val="d9d9d9"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1400" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1400" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Calibri"/>
+              </a:rPr>
+              <a:t>SDVM</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>fifteen_sec_dataset_comparison!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>sdvm</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="5b9bd5"/>
+            </a:solidFill>
+            <a:ln w="28440">
+              <a:solidFill>
+                <a:srgbClr val="5b9bd5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>fifteen_sec_dataset_comparison!$D$2:$D$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>0.0744472794938375</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0366053601035815</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.04881663007084</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.74594494256447</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.05014046562698</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0460866271596195</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.59804664072585</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.666236599023526</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.81653895511236</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.09015987869883</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.785476038651065</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.560291458102543</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.247392665339913</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.43841589725901</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.963980288567134</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.242850870107914</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.344459343178855</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.0834916878053032</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.729831888263328</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.22095169955435</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.307188879314589</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.13294007484976</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.436528019516493</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.369571482530046</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.372923226005803</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.54170549908006</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.226916620653587</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.503217653250256</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.724378224113672</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.436382256506872</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.375097232750935</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.337564830443942</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.358730762868363</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.261065260676175</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.162695294957564</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.0637497125958946</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.463317168322694</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.904597811879099</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.684842732272807</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.0852036040144173</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.0387573318241932</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.151282914309211</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.312902504150404</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.372361790966426</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.16663489709343</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.486901155652241</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.27225391623307</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.0549740515471394</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.762615624277634</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v/>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>fifteen_sec_dataset_comparison!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>sdvm</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ed7d31"/>
+            </a:solidFill>
+            <a:ln w="28440">
+              <a:solidFill>
+                <a:srgbClr val="ed7d31"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>fifteen_sec_dataset_comparison!$L$2:$L$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>0.0743645142852985</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0365646648636647</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.04765063024848</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.74400392492957</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.04897299394527</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.04603539131583</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5962700459586</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.665495924443168</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.815631185025826</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.08894791622339</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.784602802235114</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.559668565843897</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.247117631712015</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.437928497558043</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.962908603632596</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.242580885896359</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.344076397949972</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.0833988676522595</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.729020512914684</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.220706061116494</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.306847368533949</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.132792281513392</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.436042718626652</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.369160619202057</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.372508636400993</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.541103269320975</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.226664350937334</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.502658211530539</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.723572911928403</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.435897117806217</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.374680226248979</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.337189549804219</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.358331951450941</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.260775026826099</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.162514421873431</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.0636788401878483</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.462802085152889</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.903592144187223</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.684081372691903</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.0851088806920097</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.0387142441741871</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.151114728686098</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.312554641328927</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.371947825530238</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.16533791521854</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.486359853479414</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.271951243699172</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.0549129354634171</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.761767802342152</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.259977571482692</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="0"/>
+        <c:axId val="29247239"/>
+        <c:axId val="725093"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="29247239"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="d9d9d9"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="725093"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="725093"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="d9d9d9"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="6480">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="29247239"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:solidFill>
+        <a:srgbClr val="d9d9d9"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -665,11 +1834,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="55485223"/>
-        <c:axId val="30539220"/>
+        <c:axId val="16320580"/>
+        <c:axId val="96222947"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="55485223"/>
+        <c:axId val="16320580"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -705,14 +1874,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="30539220"/>
+        <c:crossAx val="96222947"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="30539220"/>
+        <c:axId val="96222947"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -755,7 +1924,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="55485223"/>
+        <c:crossAx val="16320580"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -793,7 +1962,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1244,11 +2413,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="46926597"/>
-        <c:axId val="1891757"/>
+        <c:axId val="99018781"/>
+        <c:axId val="88347995"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="46926597"/>
+        <c:axId val="99018781"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1284,14 +2453,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1891757"/>
+        <c:crossAx val="88347995"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1891757"/>
+        <c:axId val="88347995"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1334,7 +2503,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="46926597"/>
+        <c:crossAx val="99018781"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1372,7 +2541,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1823,11 +2992,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="71306300"/>
-        <c:axId val="60126235"/>
+        <c:axId val="75487454"/>
+        <c:axId val="4313239"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="71306300"/>
+        <c:axId val="75487454"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1863,14 +3032,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="60126235"/>
+        <c:crossAx val="4313239"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="60126235"/>
+        <c:axId val="4313239"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1913,7 +3082,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="71306300"/>
+        <c:crossAx val="75487454"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1951,7 +3120,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2402,11 +3571,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="59492488"/>
-        <c:axId val="93411259"/>
+        <c:axId val="93166807"/>
+        <c:axId val="45116942"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="59492488"/>
+        <c:axId val="93166807"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2442,14 +3611,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93411259"/>
+        <c:crossAx val="45116942"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="93411259"/>
+        <c:axId val="45116942"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2492,7 +3661,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="59492488"/>
+        <c:crossAx val="93166807"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2530,7 +3699,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2981,11 +4150,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="24028211"/>
-        <c:axId val="83725383"/>
+        <c:axId val="60121861"/>
+        <c:axId val="61674006"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="24028211"/>
+        <c:axId val="60121861"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3021,14 +4190,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="83725383"/>
+        <c:crossAx val="61674006"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="83725383"/>
+        <c:axId val="61674006"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3071,1165 +4240,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="24028211"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="9360">
-      <a:solidFill>
-        <a:srgbClr val="d9d9d9"/>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1400" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="0" sz="1400" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Calibri"/>
-              </a:rPr>
-              <a:t>MVM</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>fifteen_sec_dataset_comparison!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>mvm</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="5b9bd5"/>
-            </a:solidFill>
-            <a:ln w="28440">
-              <a:solidFill>
-                <a:srgbClr val="5b9bd5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>fifteen_sec_dataset_comparison!$C$2:$C$51</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
-                <c:pt idx="0">
-                  <c:v>8.61634624772928</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.64589811500325</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10.3828990332577</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.58443138520237</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9.52284033423879</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>9.37330761816166</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10.1813759836158</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>10.5602243613911</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10.8107417827089</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>11.1032408900409</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10.5891138943856</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>10.8216415179126</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>10.5861553966405</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>10.8486394545185</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>10.7694339700121</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>10.4001071184096</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>10.5765626612099</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>10.79233524461</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>10.0122364004194</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>10.0986934321772</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>9.8738530805626</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>9.75165938806811</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>9.57815966578137</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>9.54077260289385</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>9.58229371729561</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>9.97355964577885</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>10.2759148795389</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>9.73520926472744</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>10.375883448419</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>10.3073872643831</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>9.65266707372911</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>9.76238474260823</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>9.30298613872564</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>9.65991914202684</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>9.35230111299436</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>9.39489662718069</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>9.72335690361885</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>9.32570988843336</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>10.0482578745605</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>9.85148828260121</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>9.89244311351117</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>9.87545718021654</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>9.74140891033491</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>9.92974199275281</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>10.1060710551688</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>10.2298441772489</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>10.046368262461</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>10.0436759106415</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>9.93156420928596</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v/>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>fifteen_sec_dataset_comparison!$K$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>mvm</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ed7d31"/>
-            </a:solidFill>
-            <a:ln w="28440">
-              <a:solidFill>
-                <a:srgbClr val="ed7d31"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>fifteen_sec_dataset_comparison!$K$2:$K$51</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
-                <c:pt idx="0">
-                  <c:v>8.61634624783078</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.64589811507768</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10.3828990336398</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.58443138541245</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9.52284033435477</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>9.37330761824603</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10.1813759838827</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>10.5602243615213</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10.8107417828057</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>11.1032408901852</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10.5891138946711</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>10.8216415181257</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>10.586155396692</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>10.8486394545803</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>10.7694339700701</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>10.4001071187612</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>10.5765626616341</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>10.7923352451254</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>10.0122364004846</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>10.0986934322577</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>9.87385308064986</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>9.7516593881523</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>9.57815966588437</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>9.5407726029904</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>9.58229371737259</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>9.97355964585255</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>10.27591487968</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>9.73520926480285</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>10.375883448777</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>10.3073872645795</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>9.65266707378227</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>9.76238474265376</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>9.30298613879271</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>9.6599191420816</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>9.35230111304838</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>9.39489662723118</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>9.72335690366563</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>9.32570988852323</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>10.0482578746681</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>9.85148828265643</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>9.89244311356103</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>9.87545718027071</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>9.74140891038357</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>9.92974199280129</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>10.1060710552883</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>10.2298441773145</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>10.0463682626599</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>10.0436759110302</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>9.9315642094902</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>8.76900245189471</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:hiLowLines>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:hiLowLines>
-        <c:marker val="0"/>
-        <c:axId val="41642185"/>
-        <c:axId val="3890707"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="41642185"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="d9d9d9"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="3890707"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="3890707"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9360">
-              <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="6480">
-            <a:noFill/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="41642185"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="9360">
-      <a:solidFill>
-        <a:srgbClr val="d9d9d9"/>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1400" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="0" sz="1400" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Calibri"/>
-              </a:rPr>
-              <a:t>SDVM</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>fifteen_sec_dataset_comparison!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>sdvm</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="5b9bd5"/>
-            </a:solidFill>
-            <a:ln w="28440">
-              <a:solidFill>
-                <a:srgbClr val="5b9bd5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>fifteen_sec_dataset_comparison!$D$2:$D$51</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
-                <c:pt idx="0">
-                  <c:v>0.0744472794938375</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0366053601035815</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.04881663007084</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.74594494256447</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.05014046562698</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.0460866271596195</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.59804664072585</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.666236599023526</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.81653895511236</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.09015987869883</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.785476038651065</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.560291458102543</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.247392665339913</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.43841589725901</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.963980288567134</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.242850870107914</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.344459343178855</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.0834916878053032</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.729831888263328</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.22095169955435</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.307188879314589</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.13294007484976</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.436528019516493</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.369571482530046</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.372923226005803</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.54170549908006</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.226916620653587</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.503217653250256</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.724378224113672</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.436382256506872</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.375097232750935</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.337564830443942</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.358730762868363</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.261065260676175</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.162695294957564</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.0637497125958946</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.463317168322694</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.904597811879099</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.684842732272807</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.0852036040144173</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.0387573318241932</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.151282914309211</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.312902504150404</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.372361790966426</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>1.16663489709343</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.486901155652241</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.27225391623307</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.0549740515471394</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.762615624277634</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v/>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>fifteen_sec_dataset_comparison!$L$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>sdvm</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ed7d31"/>
-            </a:solidFill>
-            <a:ln w="28440">
-              <a:solidFill>
-                <a:srgbClr val="ed7d31"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>fifteen_sec_dataset_comparison!$L$2:$L$51</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
-                <c:pt idx="0">
-                  <c:v>0.0743645142852985</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0365646648636647</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.04765063024848</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.74400392492957</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.04897299394527</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.04603539131583</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.5962700459586</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.665495924443168</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.815631185025826</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.08894791622339</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.784602802235114</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.559668565843897</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.247117631712015</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.437928497558043</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.962908603632596</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.242580885896359</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.344076397949972</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.0833988676522595</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.729020512914684</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.220706061116494</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.306847368533949</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.132792281513392</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.436042718626652</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.369160619202057</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.372508636400993</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.541103269320975</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.226664350937334</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.502658211530539</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.723572911928403</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.435897117806217</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.374680226248979</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.337189549804219</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.358331951450941</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.260775026826099</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.162514421873431</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.0636788401878483</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.462802085152889</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.903592144187223</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.684081372691903</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.0851088806920097</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.0387142441741871</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.151114728686098</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.312554641328927</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.371947825530238</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>1.16533791521854</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.486359853479414</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.271951243699172</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.0549129354634171</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.761767802342152</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.259977571482692</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:hiLowLines>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:hiLowLines>
-        <c:marker val="0"/>
-        <c:axId val="67789939"/>
-        <c:axId val="66524983"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="67789939"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="d9d9d9"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="66524983"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="66524983"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9360">
-              <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="6480">
-            <a:noFill/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="67789939"/>
+        <c:crossAx val="60121861"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4272,15 +4283,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>807840</xdr:colOff>
+      <xdr:colOff>835200</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>11160</xdr:rowOff>
+      <xdr:rowOff>2520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>195480</xdr:colOff>
+      <xdr:colOff>222120</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>124920</xdr:rowOff>
+      <xdr:rowOff>115560</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4288,8 +4299,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="10409040" y="186120"/>
-        <a:ext cx="4505400" cy="2742840"/>
+        <a:off x="10283760" y="177480"/>
+        <a:ext cx="4425840" cy="2742120"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4302,15 +4313,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>788760</xdr:colOff>
+      <xdr:colOff>816120</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>45000</xdr:rowOff>
+      <xdr:rowOff>36000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>176400</xdr:colOff>
+      <xdr:colOff>203040</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>159480</xdr:rowOff>
+      <xdr:rowOff>150480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4318,8 +4329,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="10389960" y="3024360"/>
-        <a:ext cx="4505400" cy="2743200"/>
+        <a:off x="10264680" y="3015360"/>
+        <a:ext cx="4425840" cy="2743200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4332,15 +4343,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>798120</xdr:colOff>
+      <xdr:colOff>825480</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>89280</xdr:rowOff>
+      <xdr:rowOff>80640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>185760</xdr:colOff>
+      <xdr:colOff>212400</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>28080</xdr:rowOff>
+      <xdr:rowOff>19080</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4348,8 +4359,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="10399320" y="5872680"/>
-        <a:ext cx="4505400" cy="2742840"/>
+        <a:off x="10274040" y="5864040"/>
+        <a:ext cx="4425840" cy="2742480"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4362,15 +4373,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>817200</xdr:colOff>
+      <xdr:colOff>844560</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>142560</xdr:rowOff>
+      <xdr:rowOff>133920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>204840</xdr:colOff>
+      <xdr:colOff>231480</xdr:colOff>
       <xdr:row>65</xdr:row>
-      <xdr:rowOff>81360</xdr:rowOff>
+      <xdr:rowOff>72000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4378,8 +4389,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="10418400" y="8730000"/>
-        <a:ext cx="4505400" cy="2743200"/>
+        <a:off x="10293120" y="8721360"/>
+        <a:ext cx="4425840" cy="2742480"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4392,15 +4403,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>36360</xdr:colOff>
+      <xdr:colOff>63360</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>102240</xdr:rowOff>
+      <xdr:rowOff>93600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>340920</xdr:colOff>
+      <xdr:colOff>367560</xdr:colOff>
       <xdr:row>73</xdr:row>
-      <xdr:rowOff>41400</xdr:rowOff>
+      <xdr:rowOff>32400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4408,8 +4419,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="636120" y="10091880"/>
-        <a:ext cx="4505400" cy="2743200"/>
+        <a:off x="653760" y="10083240"/>
+        <a:ext cx="4438080" cy="2742840"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4422,15 +4433,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
+      <xdr:colOff>54360</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>102240</xdr:rowOff>
+      <xdr:rowOff>93600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>331560</xdr:colOff>
+      <xdr:colOff>358560</xdr:colOff>
       <xdr:row>73</xdr:row>
-      <xdr:rowOff>41400</xdr:rowOff>
+      <xdr:rowOff>32400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4438,8 +4449,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5427360" y="10091880"/>
-        <a:ext cx="4505400" cy="2743200"/>
+        <a:off x="5369040" y="10083240"/>
+        <a:ext cx="4438080" cy="2742840"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4452,15 +4463,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>817200</xdr:colOff>
+      <xdr:colOff>844560</xdr:colOff>
       <xdr:row>66</xdr:row>
-      <xdr:rowOff>29880</xdr:rowOff>
+      <xdr:rowOff>20880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>204840</xdr:colOff>
+      <xdr:colOff>231480</xdr:colOff>
       <xdr:row>81</xdr:row>
-      <xdr:rowOff>144000</xdr:rowOff>
+      <xdr:rowOff>135000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4468,8 +4479,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="10418400" y="11597040"/>
-        <a:ext cx="4505400" cy="2742840"/>
+        <a:off x="10293120" y="11588040"/>
+        <a:ext cx="4425840" cy="2742840"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4487,17 +4498,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q51"/>
+  <dimension ref="A1:AA51"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L15" activeCellId="0" sqref="L15"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="U1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AB7" activeCellId="0" sqref="AB7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="16" min="1" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="13.0051020408163"/>
-    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="16" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="25" min="18" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="15.265306122449"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="14.5510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="28" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4549,10 +4563,16 @@
       <c r="Q1" s="0" t="s">
         <v>8</v>
       </c>
+      <c r="Z1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA1" s="0" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -4598,11 +4618,19 @@
       </c>
       <c r="Q2" s="0" t="n">
         <v>0.0377911239638918</v>
+      </c>
+      <c r="Z2" s="0" t="n">
+        <f aca="false">G2-O2</f>
+        <v>-0.209675470373626</v>
+      </c>
+      <c r="AA2" s="0" t="n">
+        <f aca="false">G2/O2</f>
+        <v>0.421794512897444</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>1</v>
@@ -4648,11 +4676,19 @@
       </c>
       <c r="Q3" s="0" t="n">
         <v>0.0575653721182889</v>
+      </c>
+      <c r="Z3" s="0" t="n">
+        <f aca="false">G3-O3</f>
+        <v>-0.205259312385326</v>
+      </c>
+      <c r="AA3" s="0" t="n">
+        <f aca="false">G3/O3</f>
+        <v>0.441530768481788</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>2</v>
@@ -4698,11 +4734,19 @@
       </c>
       <c r="Q4" s="0" t="n">
         <v>0.135650085596042</v>
+      </c>
+      <c r="Z4" s="0" t="n">
+        <f aca="false">G4-O4</f>
+        <v>-0.136459301787439</v>
+      </c>
+      <c r="AA4" s="0" t="n">
+        <f aca="false">G4/O4</f>
+        <v>0.655724355220965</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>3</v>
@@ -4748,11 +4792,19 @@
       </c>
       <c r="Q5" s="0" t="n">
         <v>0.0626729049359164</v>
+      </c>
+      <c r="Z5" s="0" t="n">
+        <f aca="false">G5-O5</f>
+        <v>-0.216599192208873</v>
+      </c>
+      <c r="AA5" s="0" t="n">
+        <f aca="false">G5/O5</f>
+        <v>0.583963514279174</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>4</v>
@@ -4798,11 +4850,19 @@
       </c>
       <c r="Q6" s="0" t="n">
         <v>0.0467817689608687</v>
+      </c>
+      <c r="Z6" s="0" t="n">
+        <f aca="false">G6-O6</f>
+        <v>-0.272422854247519</v>
+      </c>
+      <c r="AA6" s="0" t="n">
+        <f aca="false">G6/O6</f>
+        <v>0.504887836822448</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>5</v>
@@ -4848,11 +4908,19 @@
       </c>
       <c r="Q7" s="0" t="n">
         <v>0.124457435496132</v>
+      </c>
+      <c r="Z7" s="0" t="n">
+        <f aca="false">G7-O7</f>
+        <v>-0.156523535831539</v>
+      </c>
+      <c r="AA7" s="0" t="n">
+        <f aca="false">G7/O7</f>
+        <v>0.4789742740509</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>6</v>
@@ -4898,11 +4966,19 @@
       </c>
       <c r="Q8" s="0" t="n">
         <v>0.0764498388486416</v>
+      </c>
+      <c r="Z8" s="0" t="n">
+        <f aca="false">G8-O8</f>
+        <v>-0.158099890964013</v>
+      </c>
+      <c r="AA8" s="0" t="n">
+        <f aca="false">G8/O8</f>
+        <v>0.62230609748484</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>7</v>
@@ -4948,11 +5024,19 @@
       </c>
       <c r="Q9" s="0" t="n">
         <v>0.0676819921567867</v>
+      </c>
+      <c r="Z9" s="0" t="n">
+        <f aca="false">G9-O9</f>
+        <v>-0.232098041943884</v>
+      </c>
+      <c r="AA9" s="0" t="n">
+        <f aca="false">G9/O9</f>
+        <v>0.569567725095514</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>8</v>
@@ -4998,11 +5082,19 @@
       </c>
       <c r="Q10" s="0" t="n">
         <v>0.0494095687797262</v>
+      </c>
+      <c r="Z10" s="0" t="n">
+        <f aca="false">G10-O10</f>
+        <v>-0.227450101175547</v>
+      </c>
+      <c r="AA10" s="0" t="n">
+        <f aca="false">G10/O10</f>
+        <v>0.484527045194184</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>9</v>
@@ -5048,11 +5140,19 @@
       </c>
       <c r="Q11" s="0" t="n">
         <v>0.0530248402495444</v>
+      </c>
+      <c r="Z11" s="0" t="n">
+        <f aca="false">G11-O11</f>
+        <v>-0.290395061451796</v>
+      </c>
+      <c r="AA11" s="0" t="n">
+        <f aca="false">G11/O11</f>
+        <v>0.423016894802964</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>10</v>
@@ -5098,11 +5198,19 @@
       </c>
       <c r="Q12" s="0" t="n">
         <v>0.145459138047153</v>
+      </c>
+      <c r="Z12" s="0" t="n">
+        <f aca="false">G12-O12</f>
+        <v>-0.133576922046064</v>
+      </c>
+      <c r="AA12" s="0" t="n">
+        <f aca="false">G12/O12</f>
+        <v>0.475356894981836</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>11</v>
@@ -5148,11 +5256,19 @@
       </c>
       <c r="Q13" s="0" t="n">
         <v>0.109707515258131</v>
+      </c>
+      <c r="Z13" s="0" t="n">
+        <f aca="false">G13-O13</f>
+        <v>-0.169034240870123</v>
+      </c>
+      <c r="AA13" s="0" t="n">
+        <f aca="false">G13/O13</f>
+        <v>0.484063286919004</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>12</v>
@@ -5198,11 +5314,19 @@
       </c>
       <c r="Q14" s="0" t="n">
         <v>0.0948767363459208</v>
+      </c>
+      <c r="Z14" s="0" t="n">
+        <f aca="false">G14-O14</f>
+        <v>-0.177369680748268</v>
+      </c>
+      <c r="AA14" s="0" t="n">
+        <f aca="false">G14/O14</f>
+        <v>0.446745485321495</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>13</v>
@@ -5248,11 +5372,19 @@
       </c>
       <c r="Q15" s="0" t="n">
         <v>0.0638900278862375</v>
+      </c>
+      <c r="Z15" s="0" t="n">
+        <f aca="false">G15-O15</f>
+        <v>-0.273571300024875</v>
+      </c>
+      <c r="AA15" s="0" t="n">
+        <f aca="false">G15/O15</f>
+        <v>0.457546270014188</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>14</v>
@@ -5298,11 +5430,19 @@
       </c>
       <c r="Q16" s="0" t="n">
         <v>0.0620374109341347</v>
+      </c>
+      <c r="Z16" s="0" t="n">
+        <f aca="false">G16-O16</f>
+        <v>-0.204060268749829</v>
+      </c>
+      <c r="AA16" s="0" t="n">
+        <f aca="false">G16/O16</f>
+        <v>0.639814367018919</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>15</v>
@@ -5348,11 +5488,19 @@
       </c>
       <c r="Q17" s="0" t="n">
         <v>0.0944754724100162</v>
+      </c>
+      <c r="Z17" s="0" t="n">
+        <f aca="false">G17-O17</f>
+        <v>-0.23559365677412</v>
+      </c>
+      <c r="AA17" s="0" t="n">
+        <f aca="false">G17/O17</f>
+        <v>0.505592432062918</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>16</v>
@@ -5398,11 +5546,19 @@
       </c>
       <c r="Q18" s="0" t="n">
         <v>0.123300403440974</v>
+      </c>
+      <c r="Z18" s="0" t="n">
+        <f aca="false">G18-O18</f>
+        <v>-0.150841403289688</v>
+      </c>
+      <c r="AA18" s="0" t="n">
+        <f aca="false">G18/O18</f>
+        <v>0.656057955860869</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>17</v>
@@ -5448,11 +5604,19 @@
       </c>
       <c r="Q19" s="0" t="n">
         <v>0.0429078185934739</v>
+      </c>
+      <c r="Z19" s="0" t="n">
+        <f aca="false">G19-O19</f>
+        <v>-0.210200908769757</v>
+      </c>
+      <c r="AA19" s="0" t="n">
+        <f aca="false">G19/O19</f>
+        <v>0.447066216988236</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>18</v>
@@ -5498,11 +5662,19 @@
       </c>
       <c r="Q20" s="0" t="n">
         <v>0.051460239140766</v>
+      </c>
+      <c r="Z20" s="0" t="n">
+        <f aca="false">G20-O20</f>
+        <v>-0.238124649380437</v>
+      </c>
+      <c r="AA20" s="0" t="n">
+        <f aca="false">G20/O20</f>
+        <v>0.432487569134637</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>19</v>
@@ -5548,11 +5720,19 @@
       </c>
       <c r="Q21" s="0" t="n">
         <v>0.0628300796898404</v>
+      </c>
+      <c r="Z21" s="0" t="n">
+        <f aca="false">G21-O21</f>
+        <v>-0.213742396698671</v>
+      </c>
+      <c r="AA21" s="0" t="n">
+        <f aca="false">G21/O21</f>
+        <v>0.376804671476906</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>20</v>
@@ -5598,11 +5778,19 @@
       </c>
       <c r="Q22" s="0" t="n">
         <v>0.0894966863317258</v>
+      </c>
+      <c r="Z22" s="0" t="n">
+        <f aca="false">G22-O22</f>
+        <v>-0.178544076549733</v>
+      </c>
+      <c r="AA22" s="0" t="n">
+        <f aca="false">G22/O22</f>
+        <v>0.440785901083006</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>21</v>
@@ -5648,11 +5836,19 @@
       </c>
       <c r="Q23" s="0" t="n">
         <v>0.108218177812966</v>
+      </c>
+      <c r="Z23" s="0" t="n">
+        <f aca="false">G23-O23</f>
+        <v>-0.146094401195743</v>
+      </c>
+      <c r="AA23" s="0" t="n">
+        <f aca="false">G23/O23</f>
+        <v>0.513812487381798</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>22</v>
@@ -5698,11 +5894,19 @@
       </c>
       <c r="Q24" s="0" t="n">
         <v>0.0934881630754491</v>
+      </c>
+      <c r="Z24" s="0" t="n">
+        <f aca="false">G24-O24</f>
+        <v>-0.198888514465644</v>
+      </c>
+      <c r="AA24" s="0" t="n">
+        <f aca="false">G24/O24</f>
+        <v>0.513014011027328</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>23</v>
@@ -5748,11 +5952,19 @@
       </c>
       <c r="Q25" s="0" t="n">
         <v>0.0558274656858018</v>
+      </c>
+      <c r="Z25" s="0" t="n">
+        <f aca="false">G25-O25</f>
+        <v>-0.218582734459546</v>
+      </c>
+      <c r="AA25" s="0" t="n">
+        <f aca="false">G25/O25</f>
+        <v>0.537268622031091</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>24</v>
@@ -5798,11 +6010,19 @@
       </c>
       <c r="Q26" s="0" t="n">
         <v>0.0502815855346934</v>
+      </c>
+      <c r="Z26" s="0" t="n">
+        <f aca="false">G26-O26</f>
+        <v>-0.23502734348329</v>
+      </c>
+      <c r="AA26" s="0" t="n">
+        <f aca="false">G26/O26</f>
+        <v>0.449796253202665</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>25</v>
@@ -5848,11 +6068,19 @@
       </c>
       <c r="Q27" s="0" t="n">
         <v>0.131861224114095</v>
+      </c>
+      <c r="Z27" s="0" t="n">
+        <f aca="false">G27-O27</f>
+        <v>-0.153161306970795</v>
+      </c>
+      <c r="AA27" s="0" t="n">
+        <f aca="false">G27/O27</f>
+        <v>0.450468052579736</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>26</v>
@@ -5898,11 +6126,19 @@
       </c>
       <c r="Q28" s="0" t="n">
         <v>0.0672186749484113</v>
+      </c>
+      <c r="Z28" s="0" t="n">
+        <f aca="false">G28-O28</f>
+        <v>-0.219401375744824</v>
+      </c>
+      <c r="AA28" s="0" t="n">
+        <f aca="false">G28/O28</f>
+        <v>0.452722485116682</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>27</v>
@@ -5948,11 +6184,19 @@
       </c>
       <c r="Q29" s="0" t="n">
         <v>0.070681909716979</v>
+      </c>
+      <c r="Z29" s="0" t="n">
+        <f aca="false">G29-O29</f>
+        <v>-0.21167631502141</v>
+      </c>
+      <c r="AA29" s="0" t="n">
+        <f aca="false">G29/O29</f>
+        <v>0.476679759945871</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>28</v>
@@ -5998,11 +6242,19 @@
       </c>
       <c r="Q30" s="0" t="n">
         <v>0.0928822237069483</v>
+      </c>
+      <c r="Z30" s="0" t="n">
+        <f aca="false">G30-O30</f>
+        <v>-0.191743725716685</v>
+      </c>
+      <c r="AA30" s="0" t="n">
+        <f aca="false">G30/O30</f>
+        <v>0.60937164541537</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>29</v>
@@ -6048,11 +6300,19 @@
       </c>
       <c r="Q31" s="0" t="n">
         <v>0.122347609128189</v>
+      </c>
+      <c r="Z31" s="0" t="n">
+        <f aca="false">G31-O31</f>
+        <v>-0.167634137838604</v>
+      </c>
+      <c r="AA31" s="0" t="n">
+        <f aca="false">G31/O31</f>
+        <v>0.423044995994355</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>30</v>
@@ -6098,11 +6358,19 @@
       </c>
       <c r="Q32" s="0" t="n">
         <v>0.0537167217072707</v>
+      </c>
+      <c r="Z32" s="0" t="n">
+        <f aca="false">G32-O32</f>
+        <v>-0.191073955900965</v>
+      </c>
+      <c r="AA32" s="0" t="n">
+        <f aca="false">G32/O32</f>
+        <v>0.357800243573004</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>31</v>
@@ -6148,11 +6416,19 @@
       </c>
       <c r="Q33" s="0" t="n">
         <v>0.0423507283593537</v>
+      </c>
+      <c r="Z33" s="0" t="n">
+        <f aca="false">G33-O33</f>
+        <v>-0.244730531696015</v>
+      </c>
+      <c r="AA33" s="0" t="n">
+        <f aca="false">G33/O33</f>
+        <v>0.336371991535521</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>32</v>
@@ -6198,11 +6474,19 @@
       </c>
       <c r="Q34" s="0" t="n">
         <v>0.0842898348697074</v>
+      </c>
+      <c r="Z34" s="0" t="n">
+        <f aca="false">G34-O34</f>
+        <v>-0.201866296181607</v>
+      </c>
+      <c r="AA34" s="0" t="n">
+        <f aca="false">G34/O34</f>
+        <v>0.413704030237017</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>33</v>
@@ -6248,11 +6532,19 @@
       </c>
       <c r="Q35" s="0" t="n">
         <v>0.043712896845031</v>
+      </c>
+      <c r="Z35" s="0" t="n">
+        <f aca="false">G35-O35</f>
+        <v>-0.266137207901106</v>
+      </c>
+      <c r="AA35" s="0" t="n">
+        <f aca="false">G35/O35</f>
+        <v>0.433987910964096</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>34</v>
@@ -6298,11 +6590,19 @@
       </c>
       <c r="Q36" s="0" t="n">
         <v>0.0801091765717967</v>
+      </c>
+      <c r="Z36" s="0" t="n">
+        <f aca="false">G36-O36</f>
+        <v>-0.246308311883309</v>
+      </c>
+      <c r="AA36" s="0" t="n">
+        <f aca="false">G36/O36</f>
+        <v>0.511201308700144</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>35</v>
@@ -6348,11 +6648,19 @@
       </c>
       <c r="Q37" s="0" t="n">
         <v>0.0395816786358154</v>
+      </c>
+      <c r="Z37" s="0" t="n">
+        <f aca="false">G37-O37</f>
+        <v>-0.228591720342114</v>
+      </c>
+      <c r="AA37" s="0" t="n">
+        <f aca="false">G37/O37</f>
+        <v>0.512897843197696</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>36</v>
@@ -6398,11 +6706,19 @@
       </c>
       <c r="Q38" s="0" t="n">
         <v>0.0688299968573796</v>
+      </c>
+      <c r="Z38" s="0" t="n">
+        <f aca="false">G38-O38</f>
+        <v>-0.264396691201863</v>
+      </c>
+      <c r="AA38" s="0" t="n">
+        <f aca="false">G38/O38</f>
+        <v>0.382505071222702</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>37</v>
@@ -6448,11 +6764,19 @@
       </c>
       <c r="Q39" s="0" t="n">
         <v>0.086306492838926</v>
+      </c>
+      <c r="Z39" s="0" t="n">
+        <f aca="false">G39-O39</f>
+        <v>-0.200937039011485</v>
+      </c>
+      <c r="AA39" s="0" t="n">
+        <f aca="false">G39/O39</f>
+        <v>0.556054868359615</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>38</v>
@@ -6498,11 +6822,19 @@
       </c>
       <c r="Q40" s="0" t="n">
         <v>0.0420856884404892</v>
+      </c>
+      <c r="Z40" s="0" t="n">
+        <f aca="false">G40-O40</f>
+        <v>-0.200062571534826</v>
+      </c>
+      <c r="AA40" s="0" t="n">
+        <f aca="false">G40/O40</f>
+        <v>0.514953738988577</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>39</v>
@@ -6548,11 +6880,19 @@
       </c>
       <c r="Q41" s="0" t="n">
         <v>0.0447535116248936</v>
+      </c>
+      <c r="Z41" s="0" t="n">
+        <f aca="false">G41-O41</f>
+        <v>-0.235697877877016</v>
+      </c>
+      <c r="AA41" s="0" t="n">
+        <f aca="false">G41/O41</f>
+        <v>0.422509825177313</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>40</v>
@@ -6598,11 +6938,19 @@
       </c>
       <c r="Q42" s="0" t="n">
         <v>0.066552950640639</v>
+      </c>
+      <c r="Z42" s="0" t="n">
+        <f aca="false">G42-O42</f>
+        <v>-0.213773537772664</v>
+      </c>
+      <c r="AA42" s="0" t="n">
+        <f aca="false">G42/O42</f>
+        <v>0.458971190879528</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>41</v>
@@ -6648,11 +6996,19 @@
       </c>
       <c r="Q43" s="0" t="n">
         <v>0.0426165197827203</v>
+      </c>
+      <c r="Z43" s="0" t="n">
+        <f aca="false">G43-O43</f>
+        <v>-0.214440959843137</v>
+      </c>
+      <c r="AA43" s="0" t="n">
+        <f aca="false">G43/O43</f>
+        <v>0.467475212957193</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>42</v>
@@ -6698,11 +7054,19 @@
       </c>
       <c r="Q44" s="0" t="n">
         <v>0.0839147897931143</v>
+      </c>
+      <c r="Z44" s="0" t="n">
+        <f aca="false">G44-O44</f>
+        <v>-0.192444092222121</v>
+      </c>
+      <c r="AA44" s="0" t="n">
+        <f aca="false">G44/O44</f>
+        <v>0.408925086477752</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>43</v>
@@ -6748,11 +7112,19 @@
       </c>
       <c r="Q45" s="0" t="n">
         <v>0.0401967406743995</v>
+      </c>
+      <c r="Z45" s="0" t="n">
+        <f aca="false">G45-O45</f>
+        <v>-0.252976729218696</v>
+      </c>
+      <c r="AA45" s="0" t="n">
+        <f aca="false">G45/O45</f>
+        <v>0.399221349850971</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>44</v>
@@ -6798,11 +7170,19 @@
       </c>
       <c r="Q46" s="0" t="n">
         <v>0.0416459552165367</v>
+      </c>
+      <c r="Z46" s="0" t="n">
+        <f aca="false">G46-O46</f>
+        <v>-0.272164890342935</v>
+      </c>
+      <c r="AA46" s="0" t="n">
+        <f aca="false">G46/O46</f>
+        <v>0.433217350409477</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>45</v>
@@ -6848,11 +7228,19 @@
       </c>
       <c r="Q47" s="0" t="n">
         <v>0.0891188373024735</v>
+      </c>
+      <c r="Z47" s="0" t="n">
+        <f aca="false">G47-O47</f>
+        <v>-0.208522105269981</v>
+      </c>
+      <c r="AA47" s="0" t="n">
+        <f aca="false">G47/O47</f>
+        <v>0.625038586461031</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>46</v>
@@ -6898,11 +7286,19 @@
       </c>
       <c r="Q48" s="0" t="n">
         <v>0.0447914528999327</v>
+      </c>
+      <c r="Z48" s="0" t="n">
+        <f aca="false">G48-O48</f>
+        <v>-0.272858112644317</v>
+      </c>
+      <c r="AA48" s="0" t="n">
+        <f aca="false">G48/O48</f>
+        <v>0.35103138834731</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>47</v>
@@ -6948,11 +7344,19 @@
       </c>
       <c r="Q49" s="0" t="n">
         <v>0.158440482417033</v>
+      </c>
+      <c r="Z49" s="0" t="n">
+        <f aca="false">G49-O49</f>
+        <v>-0.157575409309037</v>
+      </c>
+      <c r="AA49" s="0" t="n">
+        <f aca="false">G49/O49</f>
+        <v>0.525028388743577</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>48</v>
@@ -6998,6 +7402,14 @@
       </c>
       <c r="Q50" s="0" t="n">
         <v>0.160885227447645</v>
+      </c>
+      <c r="Z50" s="0" t="n">
+        <f aca="false">G50-O50</f>
+        <v>-0.166329918711761</v>
+      </c>
+      <c r="AA50" s="0" t="n">
+        <f aca="false">G50/O50</f>
+        <v>0.560767677074003</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7021,6 +7433,14 @@
       </c>
       <c r="Q51" s="0" t="n">
         <v>0.248069440542653</v>
+      </c>
+      <c r="Z51" s="0" t="n">
+        <f aca="false">G51-O51</f>
+        <v>-0.611424409793513</v>
+      </c>
+      <c r="AA51" s="0" t="n">
+        <f aca="false">G51/O51</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/fifteen_sec_dataset_combined.xlsx
+++ b/data/fifteen_sec_dataset_combined.xlsx
@@ -514,154 +514,154 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>8.61634624783078</c:v>
+                  <c:v>8.61634624772929</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.64589811507768</c:v>
+                  <c:v>8.64589811500325</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.3828990336398</c:v>
+                  <c:v>10.3828990332577</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.58443138541245</c:v>
+                  <c:v>9.58443138520238</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.52284033435477</c:v>
+                  <c:v>9.5228403342388</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.37330761824603</c:v>
+                  <c:v>9.37330761816166</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10.1813759838827</c:v>
+                  <c:v>10.1813759836158</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10.5602243615213</c:v>
+                  <c:v>10.5602243613911</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10.8107417828057</c:v>
+                  <c:v>10.8107417827089</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11.1032408901852</c:v>
+                  <c:v>11.1032408900409</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10.5891138946711</c:v>
+                  <c:v>10.5891138943856</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>10.8216415181257</c:v>
+                  <c:v>10.8216415179126</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10.586155396692</c:v>
+                  <c:v>10.5861553966405</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>10.8486394545803</c:v>
+                  <c:v>10.8486394545185</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>10.7694339700701</c:v>
+                  <c:v>10.7694339700121</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>10.4001071187612</c:v>
+                  <c:v>10.4001071184096</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>10.5765626616341</c:v>
+                  <c:v>10.5765626612099</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>10.7923352451254</c:v>
+                  <c:v>10.79233524461</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>10.0122364004846</c:v>
+                  <c:v>10.0122364004193</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>10.0986934322577</c:v>
+                  <c:v>10.0986934321772</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>9.87385308064986</c:v>
+                  <c:v>9.8738530805626</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>9.7516593881523</c:v>
+                  <c:v>9.75165938806811</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>9.57815966588437</c:v>
+                  <c:v>9.57815966578139</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>9.5407726029904</c:v>
+                  <c:v>9.54077260289385</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>9.58229371737259</c:v>
+                  <c:v>9.58229371729561</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>9.97355964585255</c:v>
+                  <c:v>9.97355964577886</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>10.27591487968</c:v>
+                  <c:v>10.2759148795389</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>9.73520926480285</c:v>
+                  <c:v>9.73520926472744</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>10.375883448777</c:v>
+                  <c:v>10.375883448419</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>10.3073872645795</c:v>
+                  <c:v>10.3073872643831</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>9.65266707378227</c:v>
+                  <c:v>9.65266707372911</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>9.76238474265376</c:v>
+                  <c:v>9.76238474260823</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>9.30298613879271</c:v>
+                  <c:v>9.30298613872565</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>9.6599191420816</c:v>
+                  <c:v>9.65991914202685</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>9.35230111304838</c:v>
+                  <c:v>9.35230111299434</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>9.39489662723118</c:v>
+                  <c:v>9.39489662718069</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>9.72335690366563</c:v>
+                  <c:v>9.72335690361884</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>9.32570988852323</c:v>
+                  <c:v>9.32570988843335</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>10.0482578746681</c:v>
+                  <c:v>10.0482578745605</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>9.85148828265643</c:v>
+                  <c:v>9.85148828260121</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>9.89244311356103</c:v>
+                  <c:v>9.89244311351117</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>9.87545718027071</c:v>
+                  <c:v>9.87545718021653</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>9.74140891038357</c:v>
+                  <c:v>9.74140891033492</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>9.92974199280129</c:v>
+                  <c:v>9.92974199275281</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>10.1060710552883</c:v>
+                  <c:v>10.1060710551688</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>10.2298441773145</c:v>
+                  <c:v>10.2298441772489</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>10.0463682626599</c:v>
+                  <c:v>10.0463682624609</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>10.0436759110302</c:v>
+                  <c:v>10.0436759106415</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>9.9315642094902</c:v>
+                  <c:v>9.93156420928597</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>8.76900245189471</c:v>
+                  <c:v>8.76900245179886</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -676,11 +676,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="28661048"/>
-        <c:axId val="17606961"/>
+        <c:axId val="4685386"/>
+        <c:axId val="90492325"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="28661048"/>
+        <c:axId val="4685386"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -716,14 +716,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="17606961"/>
+        <c:crossAx val="90492325"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="17606961"/>
+        <c:axId val="90492325"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -766,7 +766,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="28661048"/>
+        <c:crossAx val="4685386"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1093,154 +1093,154 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>0.0743645142852985</c:v>
+                  <c:v>0.0743645142881569</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0365646648636647</c:v>
+                  <c:v>0.0365646648602014</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.04765063024848</c:v>
+                  <c:v>1.04765063012162</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.74400392492957</c:v>
+                  <c:v>1.74400392479645</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.04897299394527</c:v>
+                  <c:v>1.04897299393128</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.04603539131583</c:v>
+                  <c:v>0.04603539131592</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.5962700459586</c:v>
+                  <c:v>1.59627004580114</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.665495924443168</c:v>
+                  <c:v>0.665495924420976</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.815631185025826</c:v>
+                  <c:v>0.815631185009469</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.08894791622339</c:v>
+                  <c:v>1.08894791625778</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.784602802235114</c:v>
+                  <c:v>0.784602802095772</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.559668565843897</c:v>
+                  <c:v>0.559668565794238</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.247117631712015</c:v>
+                  <c:v>0.247117631719209</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.437928497558043</c:v>
+                  <c:v>0.437928497556065</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.962908603632596</c:v>
+                  <c:v>0.962908603645967</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.242580885896359</c:v>
+                  <c:v>0.242580885733052</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.344076397949972</c:v>
+                  <c:v>0.344076397709515</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.0833988676522595</c:v>
+                  <c:v>0.0833988676678749</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.729020512914684</c:v>
+                  <c:v>0.729020512928258</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.220706061116494</c:v>
+                  <c:v>0.220706061124263</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.306847368533949</c:v>
+                  <c:v>0.306847368503821</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.132792281513392</c:v>
+                  <c:v>0.132792281502401</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.436042718626652</c:v>
+                  <c:v>0.436042718622139</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.369160619202057</c:v>
+                  <c:v>0.369160619165081</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.372508636400993</c:v>
+                  <c:v>0.372508636410143</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.541103269320975</c:v>
+                  <c:v>0.541103269322915</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.226664350937334</c:v>
+                  <c:v>0.226664350847243</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.502658211530539</c:v>
+                  <c:v>0.502658211550618</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.723572911928403</c:v>
+                  <c:v>0.72357291177564</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.435897117806217</c:v>
+                  <c:v>0.435897117661492</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.374680226248979</c:v>
+                  <c:v>0.374680226248751</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.337189549804219</c:v>
+                  <c:v>0.337189549804914</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.358331951450941</c:v>
+                  <c:v>0.358331951446714</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.260775026826099</c:v>
+                  <c:v>0.260775026833613</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.162514421873431</c:v>
+                  <c:v>0.162514421866673</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.0636788401878483</c:v>
+                  <c:v>0.0636788401864398</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.462802085152889</c:v>
+                  <c:v>0.462802085152532</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.903592144187223</c:v>
+                  <c:v>0.903592144184221</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.684081372691903</c:v>
+                  <c:v>0.68408137269082</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.0851088806920097</c:v>
+                  <c:v>0.0851088806899527</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.0387142441741871</c:v>
+                  <c:v>0.0387142441712681</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.151114728686098</c:v>
+                  <c:v>0.15111472869378</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.312554641328927</c:v>
+                  <c:v>0.312554641336745</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.371947825530238</c:v>
+                  <c:v>0.371947825534425</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.16533791521854</c:v>
+                  <c:v>1.16533791515039</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.486359853479414</c:v>
+                  <c:v>0.486359853477498</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.271951243699172</c:v>
+                  <c:v>0.271951243636737</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.0549129354634171</c:v>
+                  <c:v>0.0549129352952858</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.761767802342152</c:v>
+                  <c:v>0.761767802309823</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.259977571482692</c:v>
+                  <c:v>0.259977571477402</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1255,11 +1255,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="29247239"/>
-        <c:axId val="725093"/>
+        <c:axId val="951994"/>
+        <c:axId val="26871514"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="29247239"/>
+        <c:axId val="951994"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1295,14 +1295,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="725093"/>
+        <c:crossAx val="26871514"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="725093"/>
+        <c:axId val="26871514"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1345,7 +1345,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="29247239"/>
+        <c:crossAx val="951994"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1672,154 +1672,154 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>-1.74382037672831</c:v>
+                  <c:v>-1.74382037624629</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.62058781630268</c:v>
+                  <c:v>-1.62058781583126</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.5468735282939</c:v>
+                  <c:v>14.5468735286071</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.72695944188109</c:v>
+                  <c:v>6.72695944177542</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-19.6286316097276</c:v>
+                  <c:v>-19.6286316097005</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-50.6753049099456</c:v>
+                  <c:v>-50.675304910062</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-4.13364556526263</c:v>
+                  <c:v>-4.13364556520116</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>22.5122828248381</c:v>
+                  <c:v>22.5122828247893</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>25.0416094411821</c:v>
+                  <c:v>25.041609441174</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>14.6434956896258</c:v>
+                  <c:v>14.6434956895534</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-1.73757033052557</c:v>
+                  <c:v>-1.7375703305402</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.413503823072531</c:v>
+                  <c:v>0.413503823048371</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-27.9353639106231</c:v>
+                  <c:v>-27.9353639105649</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>16.85107225503</c:v>
+                  <c:v>16.8510722550484</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>23.914373070482</c:v>
+                  <c:v>23.9143730703957</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.78681121440517</c:v>
+                  <c:v>5.78681121431896</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.69605970982206</c:v>
+                  <c:v>3.69605970961497</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.43602599518359</c:v>
+                  <c:v>3.43602599505114</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7.32012657358951</c:v>
+                  <c:v>7.32012657333797</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.92434775467585</c:v>
+                  <c:v>3.9243477543586</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.31871082165728</c:v>
+                  <c:v>4.318710821364</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.74095444932433</c:v>
+                  <c:v>2.74095444902806</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3.51817867307655</c:v>
+                  <c:v>3.51817867276038</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.59949106695914</c:v>
+                  <c:v>3.59949106666128</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3.47982433517898</c:v>
+                  <c:v>3.47982433482808</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>6.33815840527822</c:v>
+                  <c:v>6.33815840495105</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4.35314519039287</c:v>
+                  <c:v>4.35314519004044</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>8.20126807489128</c:v>
+                  <c:v>8.20126807459534</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>9.8623499764286</c:v>
+                  <c:v>9.86234997630688</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>8.69449448638042</c:v>
+                  <c:v>8.69449448637028</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>6.16066518452458</c:v>
+                  <c:v>6.16066518429371</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>4.8188456663579</c:v>
+                  <c:v>4.81884566621118</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>6.89944902940978</c:v>
+                  <c:v>6.8994490291508</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>5.51490519431326</c:v>
+                  <c:v>5.51490519414624</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.960621829982177</c:v>
+                  <c:v>0.960621829737217</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.96395026587656</c:v>
+                  <c:v>1.96395026566988</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>4.55960782996779</c:v>
+                  <c:v>4.55960782978672</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>7.49876514085631</c:v>
+                  <c:v>7.49876514072519</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>5.16608361432852</c:v>
+                  <c:v>5.16608361389296</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2.88078957825341</c:v>
+                  <c:v>2.88078957799164</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2.51782789540968</c:v>
+                  <c:v>2.51782789519086</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>3.13206428352015</c:v>
+                  <c:v>3.13206428333766</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>3.56998346816583</c:v>
+                  <c:v>3.56998346803283</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2.98740825534682</c:v>
+                  <c:v>2.98740825515585</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-2.03166997821993</c:v>
+                  <c:v>-2.03166997837283</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>18.8619357555997</c:v>
+                  <c:v>18.8619357554836</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>56.4355148391124</c:v>
+                  <c:v>56.4355148391448</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>57.0580826399528</c:v>
+                  <c:v>57.0580826399788</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>39.9057033329317</c:v>
+                  <c:v>39.9057033328904</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.00314435847929565</c:v>
+                  <c:v>0.00314435837326041</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1834,11 +1834,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="16320580"/>
-        <c:axId val="96222947"/>
+        <c:axId val="89164573"/>
+        <c:axId val="42340673"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="16320580"/>
+        <c:axId val="89164573"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1874,14 +1874,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96222947"/>
+        <c:crossAx val="42340673"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="96222947"/>
+        <c:axId val="42340673"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1924,7 +1924,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="16320580"/>
+        <c:crossAx val="89164573"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2251,154 +2251,154 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>1.15334061260421</c:v>
+                  <c:v>1.15334061264546</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.896692782402582</c:v>
+                  <c:v>0.896692782436659</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.21238760062221</c:v>
+                  <c:v>9.21238760055862</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16.5819149558173</c:v>
+                  <c:v>16.5819149557596</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43.152813866544</c:v>
+                  <c:v>43.1528138666617</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.02286928260983</c:v>
+                  <c:v>1.02286928261289</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>27.9134256546376</c:v>
+                  <c:v>27.9134256547829</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10.20775766699</c:v>
+                  <c:v>10.207757667034</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.64898285309955</c:v>
+                  <c:v>6.64898285308083</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.23350656468321</c:v>
+                  <c:v>7.23350656468982</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.32902619981539</c:v>
+                  <c:v>7.32902619969374</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8.80827967197943</c:v>
+                  <c:v>8.80827967200349</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.49921942306742</c:v>
+                  <c:v>5.49921942307275</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>27.3766670889118</c:v>
+                  <c:v>27.3766670888805</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>10.8591063782168</c:v>
+                  <c:v>10.859106378299</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.75827224262471</c:v>
+                  <c:v>1.75827224265115</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.96717229387982</c:v>
+                  <c:v>1.96717229399596</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.838664113141441</c:v>
+                  <c:v>0.838664113280289</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>11.9987726568103</c:v>
+                  <c:v>11.998772656882</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.01823371712294</c:v>
+                  <c:v>2.01823371714022</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.35200806227519</c:v>
+                  <c:v>3.35200806231561</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.958337744666063</c:v>
+                  <c:v>0.958337744656562</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.02426178967994</c:v>
+                  <c:v>4.02426178970001</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5.21215970929249</c:v>
+                  <c:v>5.21215970936458</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.66162918335067</c:v>
+                  <c:v>1.66162918335</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.9322196093669</c:v>
+                  <c:v>2.93221960939441</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.81272308517957</c:v>
+                  <c:v>1.81272308523842</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>9.82551899063016</c:v>
+                  <c:v>9.82551899074444</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>9.35043421747193</c:v>
+                  <c:v>9.35043421752373</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>6.34971699520344</c:v>
+                  <c:v>6.34971699530435</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>4.01312466952388</c:v>
+                  <c:v>4.01312466951388</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2.34493401481827</c:v>
+                  <c:v>2.34493401481912</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.42020869808491</c:v>
+                  <c:v>3.42020869809306</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2.25506231514568</c:v>
+                  <c:v>2.25506231518027</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.01577191212079</c:v>
+                  <c:v>1.0157719121365</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.919628637225663</c:v>
+                  <c:v>0.91962863720569</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.67499567100423</c:v>
+                  <c:v>1.67499567102409</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>13.3962135225361</c:v>
+                  <c:v>13.3962135225097</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>5.30703641087051</c:v>
+                  <c:v>5.30703641092204</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.254858901068718</c:v>
+                  <c:v>0.254858901038165</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.244866479633782</c:v>
+                  <c:v>0.244866479616607</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.4045537951636</c:v>
+                  <c:v>1.40455379521852</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.20151963887404</c:v>
+                  <c:v>1.20151963886364</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2.01991174454844</c:v>
+                  <c:v>2.01991174454512</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>24.0783400158639</c:v>
+                  <c:v>24.0783400158693</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>10.684135058195</c:v>
+                  <c:v>10.6841350582646</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.517715758100765</c:v>
+                  <c:v>0.517715758094245</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.264524760905166</c:v>
+                  <c:v>0.264524760886076</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>25.0946408711248</c:v>
+                  <c:v>25.0946408712118</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.52473656693612</c:v>
+                  <c:v>1.52473656655134</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2413,11 +2413,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="99018781"/>
-        <c:axId val="88347995"/>
+        <c:axId val="89764033"/>
+        <c:axId val="1455260"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="99018781"/>
+        <c:axId val="89764033"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2453,14 +2453,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="88347995"/>
+        <c:crossAx val="1455260"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="88347995"/>
+        <c:axId val="1455260"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2503,7 +2503,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="99018781"/>
+        <c:crossAx val="89764033"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2830,154 +2830,154 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>0.362631408816838</c:v>
+                  <c:v>0.146528344198936</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.367539160263715</c:v>
+                  <c:v>0.150426831010659</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.396366411208153</c:v>
+                  <c:v>0.24672505046177</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.520625473108669</c:v>
+                  <c:v>0.298848189244372</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.550224523871827</c:v>
+                  <c:v>0.276444977467288</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.300414217640436</c:v>
+                  <c:v>0.146484666413502</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.41859264846794</c:v>
+                  <c:v>0.259010814822932</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.539220814692363</c:v>
+                  <c:v>0.296111548129451</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.441245460222505</c:v>
+                  <c:v>0.20895601618583</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.503299072080504</c:v>
+                  <c:v>0.213990633754633</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.254605313151765</c:v>
+                  <c:v>0.121490277480931</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.32762592113422</c:v>
+                  <c:v>0.146279292082954</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.320593282191899</c:v>
+                  <c:v>0.136387161294656</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.504321907846463</c:v>
+                  <c:v>0.224340666183196</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.566541944110656</c:v>
+                  <c:v>0.3524197141303</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.476517092481282</c:v>
+                  <c:v>0.249372473040214</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.438566339475118</c:v>
+                  <c:v>0.282806680598983</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.380155662807973</c:v>
+                  <c:v>0.157629018741055</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.419593715361153</c:v>
+                  <c:v>0.184696577230156</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.342978175406445</c:v>
+                  <c:v>0.12695540839291</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.319276779493778</c:v>
+                  <c:v>0.137835472407283</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.300489826258597</c:v>
+                  <c:v>0.146214178147781</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.408407056813302</c:v>
+                  <c:v>0.199286978226589</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.472374999549377</c:v>
+                  <c:v>0.244000767421867</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.427164200264636</c:v>
+                  <c:v>0.18733524421998</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.278712289048524</c:v>
+                  <c:v>0.133433879287831</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.400896016697491</c:v>
+                  <c:v>0.181236751600355</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.404487154938849</c:v>
+                  <c:v>0.199468325203691</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.490859722460684</c:v>
+                  <c:v>0.299170679753849</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.290549759816216</c:v>
+                  <c:v>0.122490554451217</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.297530408550826</c:v>
+                  <c:v>0.101251108168362</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.368776676955331</c:v>
+                  <c:v>0.117659478050257</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.344307835278509</c:v>
+                  <c:v>0.149017985496212</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.470197038290156</c:v>
+                  <c:v>0.204263736335038</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.503905424190692</c:v>
+                  <c:v>0.262192889182694</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.469289074478253</c:v>
+                  <c:v>0.228715474379248</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.428176295674841</c:v>
+                  <c:v>0.164295550891395</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.452616831879695</c:v>
+                  <c:v>0.247211672080316</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.412460805527402</c:v>
+                  <c:v>0.201546563670917</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.408141797303105</c:v>
+                  <c:v>0.163835015704659</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.395124130487962</c:v>
+                  <c:v>0.170905610033603</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.402687283410714</c:v>
+                  <c:v>0.179943066972854</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.325583251495713</c:v>
+                  <c:v>0.128134571736973</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.421081423509212</c:v>
+                  <c:v>0.163382020561028</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.480192699158245</c:v>
+                  <c:v>0.202869398510243</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.556116170199763</c:v>
+                  <c:v>0.340269856193995</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.420448859536435</c:v>
+                  <c:v>0.143716602486949</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.3317575315548</c:v>
+                  <c:v>0.181549370187766</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.378683238983267</c:v>
+                  <c:v>0.211517523944937</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.611424409793513</c:v>
+                  <c:v>0.175558239483823</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2992,11 +2992,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="75487454"/>
-        <c:axId val="4313239"/>
+        <c:axId val="79140427"/>
+        <c:axId val="57110484"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="75487454"/>
+        <c:axId val="79140427"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3032,14 +3032,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="4313239"/>
+        <c:crossAx val="57110484"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="4313239"/>
+        <c:axId val="57110484"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3082,7 +3082,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="75487454"/>
+        <c:crossAx val="79140427"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3409,64 +3409,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>0.0666666666666666</c:v>
+                  <c:v>0.0666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0666666666666666</c:v>
+                  <c:v>0.0666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0666666666666666</c:v>
+                  <c:v>0.0666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0666666666666666</c:v>
+                  <c:v>0.0666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0666666666666666</c:v>
+                  <c:v>0.0666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0666666666666666</c:v>
+                  <c:v>0.0666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.86666666666666</c:v>
+                  <c:v>1.86666666666667</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.46666666666666</c:v>
+                  <c:v>1.46666666666667</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>1.13333333333333</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0666666666666666</c:v>
+                  <c:v>0.0666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.0666666666666666</c:v>
+                  <c:v>0.0666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.0666666666666666</c:v>
+                  <c:v>0.0666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.06666666666666</c:v>
+                  <c:v>2.06666666666667</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.0666666666666666</c:v>
+                  <c:v>0.0666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.0666666666666666</c:v>
+                  <c:v>0.0666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.0666666666666666</c:v>
+                  <c:v>0.0666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.0666666666666666</c:v>
+                  <c:v>0.0666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.0666666666666666</c:v>
+                  <c:v>0.0666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.0666666666666666</c:v>
+                  <c:v>0.0666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0.133333333333333</c:v>
@@ -3475,31 +3475,31 @@
                   <c:v>0.133333333333333</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.0666666666666666</c:v>
+                  <c:v>0.0666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.0666666666666666</c:v>
+                  <c:v>0.0666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.0666666666666666</c:v>
+                  <c:v>0.0666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.0666666666666666</c:v>
+                  <c:v>0.0666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.0666666666666666</c:v>
+                  <c:v>0.0666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.0666666666666666</c:v>
+                  <c:v>0.0666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.0666666666666666</c:v>
+                  <c:v>0.0666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.0666666666666666</c:v>
+                  <c:v>0.0666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.0666666666666666</c:v>
+                  <c:v>0.0666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>0.133333333333333</c:v>
@@ -3508,7 +3508,7 @@
                   <c:v>0.333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.0666666666666666</c:v>
+                  <c:v>0.0666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>0.4</c:v>
@@ -3517,10 +3517,10 @@
                   <c:v>1.8</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.0666666666666666</c:v>
+                  <c:v>0.0666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.0666666666666666</c:v>
+                  <c:v>0.0666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>0.133333333333333</c:v>
@@ -3529,31 +3529,31 @@
                   <c:v>0.133333333333333</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.0666666666666666</c:v>
+                  <c:v>0.0666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.0666666666666666</c:v>
+                  <c:v>0.0666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.266666666666666</c:v>
+                  <c:v>0.266666666666667</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.666666666666666</c:v>
+                  <c:v>0.666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.0666666666666666</c:v>
+                  <c:v>0.0666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.0666666666666666</c:v>
+                  <c:v>0.0666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.0666666666666666</c:v>
+                  <c:v>0.0666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>2.6865671641791</c:v>
@@ -3571,11 +3571,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="93166807"/>
-        <c:axId val="45116942"/>
+        <c:axId val="70189373"/>
+        <c:axId val="80696305"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="93166807"/>
+        <c:axId val="70189373"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3611,14 +3611,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="45116942"/>
+        <c:crossAx val="80696305"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="45116942"/>
+        <c:axId val="80696305"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3661,7 +3661,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93166807"/>
+        <c:crossAx val="70189373"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4150,11 +4150,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="60121861"/>
-        <c:axId val="61674006"/>
+        <c:axId val="70114455"/>
+        <c:axId val="77996559"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="60121861"/>
+        <c:axId val="70114455"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4190,14 +4190,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="61674006"/>
+        <c:crossAx val="77996559"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="61674006"/>
+        <c:axId val="77996559"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4240,7 +4240,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="60121861"/>
+        <c:crossAx val="70114455"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4283,15 +4283,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>835200</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>2520</xdr:rowOff>
+      <xdr:colOff>862200</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>168480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>222120</xdr:colOff>
+      <xdr:colOff>248760</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>115560</xdr:rowOff>
+      <xdr:rowOff>106200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4299,8 +4299,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="10283760" y="177480"/>
-        <a:ext cx="4425840" cy="2742120"/>
+        <a:off x="11926440" y="168480"/>
+        <a:ext cx="4329360" cy="2741760"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4313,15 +4313,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>816120</xdr:colOff>
+      <xdr:colOff>843120</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>36000</xdr:rowOff>
+      <xdr:rowOff>27000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>203040</xdr:colOff>
+      <xdr:colOff>229680</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>150480</xdr:rowOff>
+      <xdr:rowOff>141480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4329,8 +4329,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="10264680" y="3015360"/>
-        <a:ext cx="4425840" cy="2743200"/>
+        <a:off x="11907360" y="3006360"/>
+        <a:ext cx="4329360" cy="2743200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4343,15 +4343,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>825480</xdr:colOff>
+      <xdr:colOff>852480</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>80640</xdr:rowOff>
+      <xdr:rowOff>72000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>212400</xdr:colOff>
+      <xdr:colOff>239040</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>19080</xdr:rowOff>
+      <xdr:rowOff>10080</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4359,8 +4359,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="10274040" y="5864040"/>
-        <a:ext cx="4425840" cy="2742480"/>
+        <a:off x="11916720" y="5855400"/>
+        <a:ext cx="4329360" cy="2742120"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4373,15 +4373,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>844560</xdr:colOff>
+      <xdr:colOff>871560</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>133920</xdr:rowOff>
+      <xdr:rowOff>125280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>231480</xdr:colOff>
+      <xdr:colOff>258120</xdr:colOff>
       <xdr:row>65</xdr:row>
-      <xdr:rowOff>72000</xdr:rowOff>
+      <xdr:rowOff>62640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4389,8 +4389,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="10293120" y="8721360"/>
-        <a:ext cx="4425840" cy="2742480"/>
+        <a:off x="11935800" y="8712720"/>
+        <a:ext cx="4329360" cy="2741760"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4403,15 +4403,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>63360</xdr:colOff>
+      <xdr:colOff>90720</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>93600</xdr:rowOff>
+      <xdr:rowOff>84960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>367560</xdr:colOff>
+      <xdr:colOff>394560</xdr:colOff>
       <xdr:row>73</xdr:row>
-      <xdr:rowOff>32400</xdr:rowOff>
+      <xdr:rowOff>23400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4419,8 +4419,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="653760" y="10083240"/>
-        <a:ext cx="4438080" cy="2742840"/>
+        <a:off x="671400" y="10074600"/>
+        <a:ext cx="4371120" cy="2742480"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4433,15 +4433,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>54360</xdr:colOff>
+      <xdr:colOff>81720</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>93600</xdr:rowOff>
+      <xdr:rowOff>84960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>358560</xdr:colOff>
+      <xdr:colOff>385200</xdr:colOff>
       <xdr:row>73</xdr:row>
-      <xdr:rowOff>32400</xdr:rowOff>
+      <xdr:rowOff>23400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4449,8 +4449,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5369040" y="10083240"/>
-        <a:ext cx="4438080" cy="2742840"/>
+        <a:off x="5310720" y="10074600"/>
+        <a:ext cx="6138720" cy="2742480"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4463,15 +4463,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>844560</xdr:colOff>
+      <xdr:colOff>871560</xdr:colOff>
       <xdr:row>66</xdr:row>
-      <xdr:rowOff>20880</xdr:rowOff>
+      <xdr:rowOff>11880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>231480</xdr:colOff>
+      <xdr:colOff>258120</xdr:colOff>
       <xdr:row>81</xdr:row>
-      <xdr:rowOff>135000</xdr:rowOff>
+      <xdr:rowOff>126000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4479,8 +4479,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="10293120" y="11588040"/>
-        <a:ext cx="4425840" cy="2742840"/>
+        <a:off x="11935800" y="11579040"/>
+        <a:ext cx="4329360" cy="2742840"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4500,18 +4500,18 @@
   </sheetPr>
   <dimension ref="A1:AA51"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="U1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AB7" activeCellId="0" sqref="AB7"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L10" activeCellId="0" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="16" min="1" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="25" min="18" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="15.265306122449"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="14.5510204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="28" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="10" min="1" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="17" min="11" style="0" width="12.4081632653061"/>
+    <col collapsed="false" hidden="false" max="25" min="18" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="1025" min="28" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4599,33 +4599,33 @@
         <v>0.0378899487147213</v>
       </c>
       <c r="K2" s="0" t="n">
-        <v>8.61634624783078</v>
+        <v>8.61634624772929</v>
       </c>
       <c r="L2" s="0" t="n">
-        <v>0.0743645142852985</v>
+        <v>0.0743645142881569</v>
       </c>
       <c r="M2" s="0" t="n">
-        <v>-1.74382037672831</v>
+        <v>-1.74382037624629</v>
       </c>
       <c r="N2" s="0" t="n">
-        <v>1.15334061260421</v>
+        <v>1.15334061264546</v>
       </c>
       <c r="O2" s="0" t="n">
-        <v>0.362631408816838</v>
+        <v>0.146528344198936</v>
       </c>
       <c r="P2" s="0" t="n">
-        <v>0.0666666666666666</v>
+        <v>0.0666666666666667</v>
       </c>
       <c r="Q2" s="0" t="n">
         <v>0.0377911239638918</v>
       </c>
       <c r="Z2" s="0" t="n">
         <f aca="false">G2-O2</f>
-        <v>-0.209675470373626</v>
+        <v>0.00642759424427553</v>
       </c>
       <c r="AA2" s="0" t="n">
         <f aca="false">G2/O2</f>
-        <v>0.421794512897444</v>
+        <v>1.04386587645834</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4657,33 +4657,33 @@
         <v>0.0577016391715438</v>
       </c>
       <c r="K3" s="0" t="n">
-        <v>8.64589811507768</v>
+        <v>8.64589811500325</v>
       </c>
       <c r="L3" s="0" t="n">
-        <v>0.0365646648636647</v>
+        <v>0.0365646648602014</v>
       </c>
       <c r="M3" s="0" t="n">
-        <v>-1.62058781630268</v>
+        <v>-1.62058781583126</v>
       </c>
       <c r="N3" s="0" t="n">
-        <v>0.896692782402582</v>
+        <v>0.896692782436659</v>
       </c>
       <c r="O3" s="0" t="n">
-        <v>0.367539160263715</v>
+        <v>0.150426831010659</v>
       </c>
       <c r="P3" s="0" t="n">
-        <v>0.0666666666666666</v>
+        <v>0.0666666666666667</v>
       </c>
       <c r="Q3" s="0" t="n">
         <v>0.0575653721182889</v>
       </c>
       <c r="Z3" s="0" t="n">
         <f aca="false">G3-O3</f>
-        <v>-0.205259312385326</v>
+        <v>0.0118530168677295</v>
       </c>
       <c r="AA3" s="0" t="n">
         <f aca="false">G3/O3</f>
-        <v>0.441530768481788</v>
+        <v>1.07879589557324</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4715,33 +4715,33 @@
         <v>0.135815901111761</v>
       </c>
       <c r="K4" s="0" t="n">
-        <v>10.3828990336398</v>
+        <v>10.3828990332577</v>
       </c>
       <c r="L4" s="0" t="n">
-        <v>1.04765063024848</v>
+        <v>1.04765063012162</v>
       </c>
       <c r="M4" s="0" t="n">
-        <v>14.5468735282939</v>
+        <v>14.5468735286071</v>
       </c>
       <c r="N4" s="0" t="n">
-        <v>9.21238760062221</v>
+        <v>9.21238760055862</v>
       </c>
       <c r="O4" s="0" t="n">
-        <v>0.396366411208153</v>
+        <v>0.24672505046177</v>
       </c>
       <c r="P4" s="0" t="n">
-        <v>0.0666666666666666</v>
+        <v>0.0666666666666667</v>
       </c>
       <c r="Q4" s="0" t="n">
         <v>0.135650085596042</v>
       </c>
       <c r="Z4" s="0" t="n">
         <f aca="false">G4-O4</f>
-        <v>-0.136459301787439</v>
+        <v>0.0131820589589444</v>
       </c>
       <c r="AA4" s="0" t="n">
         <f aca="false">G4/O4</f>
-        <v>0.655724355220965</v>
+        <v>1.05342813360165</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4773,33 +4773,33 @@
         <v>0.0628345992381891</v>
       </c>
       <c r="K5" s="0" t="n">
-        <v>9.58443138541245</v>
+        <v>9.58443138520238</v>
       </c>
       <c r="L5" s="0" t="n">
-        <v>1.74400392492957</v>
+        <v>1.74400392479645</v>
       </c>
       <c r="M5" s="0" t="n">
-        <v>6.72695944188109</v>
+        <v>6.72695944177542</v>
       </c>
       <c r="N5" s="0" t="n">
-        <v>16.5819149558173</v>
+        <v>16.5819149557596</v>
       </c>
       <c r="O5" s="0" t="n">
-        <v>0.520625473108669</v>
+        <v>0.298848189244372</v>
       </c>
       <c r="P5" s="0" t="n">
-        <v>0.0666666666666666</v>
+        <v>0.0666666666666667</v>
       </c>
       <c r="Q5" s="0" t="n">
         <v>0.0626729049359164</v>
       </c>
       <c r="Z5" s="0" t="n">
         <f aca="false">G5-O5</f>
-        <v>-0.216599192208873</v>
+        <v>0.00517809165542421</v>
       </c>
       <c r="AA5" s="0" t="n">
         <f aca="false">G5/O5</f>
-        <v>0.583963514279174</v>
+        <v>1.01732682961378</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4831,19 +4831,19 @@
         <v>0.0469280730290688</v>
       </c>
       <c r="K6" s="0" t="n">
-        <v>9.52284033435477</v>
+        <v>9.5228403342388</v>
       </c>
       <c r="L6" s="0" t="n">
-        <v>1.04897299394527</v>
+        <v>1.04897299393128</v>
       </c>
       <c r="M6" s="0" t="n">
-        <v>-19.6286316097276</v>
+        <v>-19.6286316097005</v>
       </c>
       <c r="N6" s="0" t="n">
-        <v>43.152813866544</v>
+        <v>43.1528138666617</v>
       </c>
       <c r="O6" s="0" t="n">
-        <v>0.550224523871827</v>
+        <v>0.276444977467288</v>
       </c>
       <c r="P6" s="0" t="n">
         <v>0.4</v>
@@ -4853,11 +4853,11 @@
       </c>
       <c r="Z6" s="0" t="n">
         <f aca="false">G6-O6</f>
-        <v>-0.272422854247519</v>
+        <v>0.00135669215702022</v>
       </c>
       <c r="AA6" s="0" t="n">
         <f aca="false">G6/O6</f>
-        <v>0.504887836822448</v>
+        <v>1.00490763901537</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4889,33 +4889,33 @@
         <v>0.124618589874524</v>
       </c>
       <c r="K7" s="0" t="n">
-        <v>9.37330761824603</v>
+        <v>9.37330761816166</v>
       </c>
       <c r="L7" s="0" t="n">
-        <v>0.04603539131583</v>
+        <v>0.04603539131592</v>
       </c>
       <c r="M7" s="0" t="n">
-        <v>-50.6753049099456</v>
+        <v>-50.675304910062</v>
       </c>
       <c r="N7" s="0" t="n">
-        <v>1.02286928260983</v>
+        <v>1.02286928261289</v>
       </c>
       <c r="O7" s="0" t="n">
-        <v>0.300414217640436</v>
+        <v>0.146484666413502</v>
       </c>
       <c r="P7" s="0" t="n">
-        <v>0.0666666666666666</v>
+        <v>0.0666666666666667</v>
       </c>
       <c r="Q7" s="0" t="n">
         <v>0.124457435496132</v>
       </c>
       <c r="Z7" s="0" t="n">
         <f aca="false">G7-O7</f>
-        <v>-0.156523535831539</v>
+        <v>-0.00259398460460539</v>
       </c>
       <c r="AA7" s="0" t="n">
         <f aca="false">G7/O7</f>
-        <v>0.4789742740509</v>
+        <v>0.982291766994349</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4947,33 +4947,33 @@
         <v>0.0765902396061189</v>
       </c>
       <c r="K8" s="0" t="n">
-        <v>10.1813759838827</v>
+        <v>10.1813759836158</v>
       </c>
       <c r="L8" s="0" t="n">
-        <v>1.5962700459586</v>
+        <v>1.59627004580114</v>
       </c>
       <c r="M8" s="0" t="n">
-        <v>-4.13364556526263</v>
+        <v>-4.13364556520116</v>
       </c>
       <c r="N8" s="0" t="n">
-        <v>27.9134256546376</v>
+        <v>27.9134256547829</v>
       </c>
       <c r="O8" s="0" t="n">
-        <v>0.41859264846794</v>
+        <v>0.259010814822932</v>
       </c>
       <c r="P8" s="0" t="n">
-        <v>0.0666666666666666</v>
+        <v>0.0666666666666667</v>
       </c>
       <c r="Q8" s="0" t="n">
         <v>0.0764498388486416</v>
       </c>
       <c r="Z8" s="0" t="n">
         <f aca="false">G8-O8</f>
-        <v>-0.158099890964013</v>
+        <v>0.001481942680995</v>
       </c>
       <c r="AA8" s="0" t="n">
         <f aca="false">G8/O8</f>
-        <v>0.62230609748484</v>
+        <v>1.00572154750375</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5005,33 +5005,33 @@
         <v>0.0677687159614523</v>
       </c>
       <c r="K9" s="0" t="n">
-        <v>10.5602243615213</v>
+        <v>10.5602243613911</v>
       </c>
       <c r="L9" s="0" t="n">
-        <v>0.665495924443168</v>
+        <v>0.665495924420976</v>
       </c>
       <c r="M9" s="0" t="n">
-        <v>22.5122828248381</v>
+        <v>22.5122828247893</v>
       </c>
       <c r="N9" s="0" t="n">
-        <v>10.20775766699</v>
+        <v>10.207757667034</v>
       </c>
       <c r="O9" s="0" t="n">
-        <v>0.539220814692363</v>
+        <v>0.296111548129451</v>
       </c>
       <c r="P9" s="0" t="n">
-        <v>1.86666666666666</v>
+        <v>1.86666666666667</v>
       </c>
       <c r="Q9" s="0" t="n">
         <v>0.0676819921567867</v>
       </c>
       <c r="Z9" s="0" t="n">
         <f aca="false">G9-O9</f>
-        <v>-0.232098041943884</v>
+        <v>0.011011224619028</v>
       </c>
       <c r="AA9" s="0" t="n">
         <f aca="false">G9/O9</f>
-        <v>0.569567725095514</v>
+        <v>1.03718606953557</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5063,33 +5063,33 @@
         <v>0.049573205811089</v>
       </c>
       <c r="K10" s="0" t="n">
-        <v>10.8107417828057</v>
+        <v>10.8107417827089</v>
       </c>
       <c r="L10" s="0" t="n">
-        <v>0.815631185025826</v>
+        <v>0.815631185009469</v>
       </c>
       <c r="M10" s="0" t="n">
-        <v>25.0416094411821</v>
+        <v>25.041609441174</v>
       </c>
       <c r="N10" s="0" t="n">
-        <v>6.64898285309955</v>
+        <v>6.64898285308083</v>
       </c>
       <c r="O10" s="0" t="n">
-        <v>0.441245460222505</v>
+        <v>0.20895601618583</v>
       </c>
       <c r="P10" s="0" t="n">
-        <v>1.46666666666666</v>
+        <v>1.46666666666667</v>
       </c>
       <c r="Q10" s="0" t="n">
         <v>0.0494095687797262</v>
       </c>
       <c r="Z10" s="0" t="n">
         <f aca="false">G10-O10</f>
-        <v>-0.227450101175547</v>
+        <v>0.004839342861128</v>
       </c>
       <c r="AA10" s="0" t="n">
         <f aca="false">G10/O10</f>
-        <v>0.484527045194184</v>
+        <v>1.02315962444855</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5121,19 +5121,19 @@
         <v>0.0531034971925751</v>
       </c>
       <c r="K11" s="0" t="n">
-        <v>11.1032408901852</v>
+        <v>11.1032408900409</v>
       </c>
       <c r="L11" s="0" t="n">
-        <v>1.08894791622339</v>
+        <v>1.08894791625778</v>
       </c>
       <c r="M11" s="0" t="n">
-        <v>14.6434956896258</v>
+        <v>14.6434956895534</v>
       </c>
       <c r="N11" s="0" t="n">
-        <v>7.23350656468321</v>
+        <v>7.23350656468982</v>
       </c>
       <c r="O11" s="0" t="n">
-        <v>0.503299072080504</v>
+        <v>0.213990633754633</v>
       </c>
       <c r="P11" s="0" t="n">
         <v>1.13333333333333</v>
@@ -5143,11 +5143,11 @@
       </c>
       <c r="Z11" s="0" t="n">
         <f aca="false">G11-O11</f>
-        <v>-0.290395061451796</v>
+        <v>-0.00108662312592464</v>
       </c>
       <c r="AA11" s="0" t="n">
         <f aca="false">G11/O11</f>
-        <v>0.423016894802964</v>
+        <v>0.994922099594459</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5179,33 +5179,33 @@
         <v>0.145887637626527</v>
       </c>
       <c r="K12" s="0" t="n">
-        <v>10.5891138946711</v>
+        <v>10.5891138943856</v>
       </c>
       <c r="L12" s="0" t="n">
-        <v>0.784602802235114</v>
+        <v>0.784602802095772</v>
       </c>
       <c r="M12" s="0" t="n">
-        <v>-1.73757033052557</v>
+        <v>-1.7375703305402</v>
       </c>
       <c r="N12" s="0" t="n">
-        <v>7.32902619981539</v>
+        <v>7.32902619969374</v>
       </c>
       <c r="O12" s="0" t="n">
-        <v>0.254605313151765</v>
+        <v>0.121490277480931</v>
       </c>
       <c r="P12" s="0" t="n">
-        <v>0.0666666666666666</v>
+        <v>0.0666666666666667</v>
       </c>
       <c r="Q12" s="0" t="n">
         <v>0.145459138047153</v>
       </c>
       <c r="Z12" s="0" t="n">
         <f aca="false">G12-O12</f>
-        <v>-0.133576922046064</v>
+        <v>-0.000461886375230119</v>
       </c>
       <c r="AA12" s="0" t="n">
         <f aca="false">G12/O12</f>
-        <v>0.475356894981836</v>
+        <v>0.996198161821611</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5237,33 +5237,33 @@
         <v>0.109848441781116</v>
       </c>
       <c r="K13" s="0" t="n">
-        <v>10.8216415181257</v>
+        <v>10.8216415179126</v>
       </c>
       <c r="L13" s="0" t="n">
-        <v>0.559668565843897</v>
+        <v>0.559668565794238</v>
       </c>
       <c r="M13" s="0" t="n">
-        <v>0.413503823072531</v>
+        <v>0.413503823048371</v>
       </c>
       <c r="N13" s="0" t="n">
-        <v>8.80827967197943</v>
+        <v>8.80827967200349</v>
       </c>
       <c r="O13" s="0" t="n">
-        <v>0.32762592113422</v>
+        <v>0.146279292082954</v>
       </c>
       <c r="P13" s="0" t="n">
-        <v>0.0666666666666666</v>
+        <v>0.0666666666666667</v>
       </c>
       <c r="Q13" s="0" t="n">
         <v>0.109707515258131</v>
       </c>
       <c r="Z13" s="0" t="n">
         <f aca="false">G13-O13</f>
-        <v>-0.169034240870123</v>
+        <v>0.0123123881811433</v>
       </c>
       <c r="AA13" s="0" t="n">
         <f aca="false">G13/O13</f>
-        <v>0.484063286919004</v>
+        <v>1.08417041131264</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5295,33 +5295,33 @@
         <v>0.094998989475765</v>
       </c>
       <c r="K14" s="0" t="n">
-        <v>10.586155396692</v>
+        <v>10.5861553966405</v>
       </c>
       <c r="L14" s="0" t="n">
-        <v>0.247117631712015</v>
+        <v>0.247117631719209</v>
       </c>
       <c r="M14" s="0" t="n">
-        <v>-27.9353639106231</v>
+        <v>-27.9353639105649</v>
       </c>
       <c r="N14" s="0" t="n">
-        <v>5.49921942306742</v>
+        <v>5.49921942307275</v>
       </c>
       <c r="O14" s="0" t="n">
-        <v>0.320593282191899</v>
+        <v>0.136387161294656</v>
       </c>
       <c r="P14" s="0" t="n">
-        <v>0.0666666666666666</v>
+        <v>0.0666666666666667</v>
       </c>
       <c r="Q14" s="0" t="n">
         <v>0.0948767363459208</v>
       </c>
       <c r="Z14" s="0" t="n">
         <f aca="false">G14-O14</f>
-        <v>-0.177369680748268</v>
+        <v>0.00683644014897478</v>
       </c>
       <c r="AA14" s="0" t="n">
         <f aca="false">G14/O14</f>
-        <v>0.446745485321495</v>
+        <v>1.05012524701064</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5353,33 +5353,33 @@
         <v>0.0642523555011899</v>
       </c>
       <c r="K15" s="0" t="n">
-        <v>10.8486394545803</v>
+        <v>10.8486394545185</v>
       </c>
       <c r="L15" s="0" t="n">
-        <v>0.437928497558043</v>
+        <v>0.437928497556065</v>
       </c>
       <c r="M15" s="0" t="n">
-        <v>16.85107225503</v>
+        <v>16.8510722550484</v>
       </c>
       <c r="N15" s="0" t="n">
-        <v>27.3766670889118</v>
+        <v>27.3766670888805</v>
       </c>
       <c r="O15" s="0" t="n">
-        <v>0.504321907846463</v>
+        <v>0.224340666183196</v>
       </c>
       <c r="P15" s="0" t="n">
-        <v>2.06666666666666</v>
+        <v>2.06666666666667</v>
       </c>
       <c r="Q15" s="0" t="n">
         <v>0.0638900278862375</v>
       </c>
       <c r="Z15" s="0" t="n">
         <f aca="false">G15-O15</f>
-        <v>-0.273571300024875</v>
+        <v>0.00640994163839231</v>
       </c>
       <c r="AA15" s="0" t="n">
         <f aca="false">G15/O15</f>
-        <v>0.457546270014188</v>
+        <v>1.02857235715418</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5411,33 +5411,33 @@
         <v>0.0622003724027254</v>
       </c>
       <c r="K16" s="0" t="n">
-        <v>10.7694339700701</v>
+        <v>10.7694339700121</v>
       </c>
       <c r="L16" s="0" t="n">
-        <v>0.962908603632596</v>
+        <v>0.962908603645967</v>
       </c>
       <c r="M16" s="0" t="n">
-        <v>23.914373070482</v>
+        <v>23.9143730703957</v>
       </c>
       <c r="N16" s="0" t="n">
-        <v>10.8591063782168</v>
+        <v>10.859106378299</v>
       </c>
       <c r="O16" s="0" t="n">
-        <v>0.566541944110656</v>
+        <v>0.3524197141303</v>
       </c>
       <c r="P16" s="0" t="n">
-        <v>0.0666666666666666</v>
+        <v>0.0666666666666667</v>
       </c>
       <c r="Q16" s="0" t="n">
         <v>0.0620374109341347</v>
       </c>
       <c r="Z16" s="0" t="n">
         <f aca="false">G16-O16</f>
-        <v>-0.204060268749829</v>
+        <v>0.0100619612305267</v>
       </c>
       <c r="AA16" s="0" t="n">
         <f aca="false">G16/O16</f>
-        <v>0.639814367018919</v>
+        <v>1.02855107369733</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5469,33 +5469,33 @@
         <v>0.0946594899722805</v>
       </c>
       <c r="K17" s="0" t="n">
-        <v>10.4001071187612</v>
+        <v>10.4001071184096</v>
       </c>
       <c r="L17" s="0" t="n">
-        <v>0.242580885896359</v>
+        <v>0.242580885733052</v>
       </c>
       <c r="M17" s="0" t="n">
-        <v>5.78681121440517</v>
+        <v>5.78681121431896</v>
       </c>
       <c r="N17" s="0" t="n">
-        <v>1.75827224262471</v>
+        <v>1.75827224265115</v>
       </c>
       <c r="O17" s="0" t="n">
-        <v>0.476517092481282</v>
+        <v>0.249372473040214</v>
       </c>
       <c r="P17" s="0" t="n">
-        <v>0.0666666666666666</v>
+        <v>0.0666666666666667</v>
       </c>
       <c r="Q17" s="0" t="n">
         <v>0.0944754724100162</v>
       </c>
       <c r="Z17" s="0" t="n">
         <f aca="false">G17-O17</f>
-        <v>-0.23559365677412</v>
+        <v>-0.00844903733305177</v>
       </c>
       <c r="AA17" s="0" t="n">
         <f aca="false">G17/O17</f>
-        <v>0.505592432062918</v>
+        <v>0.966118805215164</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5527,33 +5527,33 @@
         <v>0.123579310450381</v>
       </c>
       <c r="K18" s="0" t="n">
-        <v>10.5765626616341</v>
+        <v>10.5765626612099</v>
       </c>
       <c r="L18" s="0" t="n">
-        <v>0.344076397949972</v>
+        <v>0.344076397709515</v>
       </c>
       <c r="M18" s="0" t="n">
-        <v>3.69605970982206</v>
+        <v>3.69605970961497</v>
       </c>
       <c r="N18" s="0" t="n">
-        <v>1.96717229387982</v>
+        <v>1.96717229399596</v>
       </c>
       <c r="O18" s="0" t="n">
-        <v>0.438566339475118</v>
+        <v>0.282806680598983</v>
       </c>
       <c r="P18" s="0" t="n">
-        <v>0.0666666666666666</v>
+        <v>0.0666666666666667</v>
       </c>
       <c r="Q18" s="0" t="n">
         <v>0.123300403440974</v>
       </c>
       <c r="Z18" s="0" t="n">
         <f aca="false">G18-O18</f>
-        <v>-0.150841403289688</v>
+        <v>0.00491825558644698</v>
       </c>
       <c r="AA18" s="0" t="n">
         <f aca="false">G18/O18</f>
-        <v>0.656057955860869</v>
+        <v>1.01739087484083</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5585,33 +5585,33 @@
         <v>0.0430133303494121</v>
       </c>
       <c r="K19" s="0" t="n">
-        <v>10.7923352451254</v>
+        <v>10.79233524461</v>
       </c>
       <c r="L19" s="0" t="n">
-        <v>0.0833988676522595</v>
+        <v>0.0833988676678749</v>
       </c>
       <c r="M19" s="0" t="n">
-        <v>3.43602599518359</v>
+        <v>3.43602599505114</v>
       </c>
       <c r="N19" s="0" t="n">
-        <v>0.838664113141441</v>
+        <v>0.838664113280289</v>
       </c>
       <c r="O19" s="0" t="n">
-        <v>0.380155662807973</v>
+        <v>0.157629018741055</v>
       </c>
       <c r="P19" s="0" t="n">
-        <v>0.0666666666666666</v>
+        <v>0.0666666666666667</v>
       </c>
       <c r="Q19" s="0" t="n">
         <v>0.0429078185934739</v>
       </c>
       <c r="Z19" s="0" t="n">
         <f aca="false">G19-O19</f>
-        <v>-0.210200908769757</v>
+        <v>0.0123257352971614</v>
       </c>
       <c r="AA19" s="0" t="n">
         <f aca="false">G19/O19</f>
-        <v>0.447066216988236</v>
+        <v>1.07819458241639</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5643,33 +5643,33 @@
         <v>0.0515423880408426</v>
       </c>
       <c r="K20" s="0" t="n">
-        <v>10.0122364004846</v>
+        <v>10.0122364004193</v>
       </c>
       <c r="L20" s="0" t="n">
-        <v>0.729020512914684</v>
+        <v>0.729020512928258</v>
       </c>
       <c r="M20" s="0" t="n">
-        <v>7.32012657358951</v>
+        <v>7.32012657333797</v>
       </c>
       <c r="N20" s="0" t="n">
-        <v>11.9987726568103</v>
+        <v>11.998772656882</v>
       </c>
       <c r="O20" s="0" t="n">
-        <v>0.419593715361153</v>
+        <v>0.184696577230156</v>
       </c>
       <c r="P20" s="0" t="n">
-        <v>0.0666666666666666</v>
+        <v>0.0666666666666667</v>
       </c>
       <c r="Q20" s="0" t="n">
         <v>0.051460239140766</v>
       </c>
       <c r="Z20" s="0" t="n">
         <f aca="false">G20-O20</f>
-        <v>-0.238124649380437</v>
+        <v>-0.0032275112494396</v>
       </c>
       <c r="AA20" s="0" t="n">
         <f aca="false">G20/O20</f>
-        <v>0.432487569134637</v>
+        <v>0.982525332641017</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5701,33 +5701,33 @@
         <v>0.0630544575617325</v>
       </c>
       <c r="K21" s="0" t="n">
-        <v>10.0986934322577</v>
+        <v>10.0986934321772</v>
       </c>
       <c r="L21" s="0" t="n">
-        <v>0.220706061116494</v>
+        <v>0.220706061124263</v>
       </c>
       <c r="M21" s="0" t="n">
-        <v>3.92434775467585</v>
+        <v>3.9243477543586</v>
       </c>
       <c r="N21" s="0" t="n">
-        <v>2.01823371712294</v>
+        <v>2.01823371714022</v>
       </c>
       <c r="O21" s="0" t="n">
-        <v>0.342978175406445</v>
+        <v>0.12695540839291</v>
       </c>
       <c r="P21" s="0" t="n">
-        <v>0.0666666666666666</v>
+        <v>0.0666666666666667</v>
       </c>
       <c r="Q21" s="0" t="n">
         <v>0.0628300796898404</v>
       </c>
       <c r="Z21" s="0" t="n">
         <f aca="false">G21-O21</f>
-        <v>-0.213742396698671</v>
+        <v>0.00228037031486358</v>
       </c>
       <c r="AA21" s="0" t="n">
         <f aca="false">G21/O21</f>
-        <v>0.376804671476906</v>
+        <v>1.01796197849095</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5759,19 +5759,19 @@
         <v>0.0896731490003322</v>
       </c>
       <c r="K22" s="0" t="n">
-        <v>9.87385308064986</v>
+        <v>9.8738530805626</v>
       </c>
       <c r="L22" s="0" t="n">
-        <v>0.306847368533949</v>
+        <v>0.306847368503821</v>
       </c>
       <c r="M22" s="0" t="n">
-        <v>4.31871082165728</v>
+        <v>4.318710821364</v>
       </c>
       <c r="N22" s="0" t="n">
-        <v>3.35200806227519</v>
+        <v>3.35200806231561</v>
       </c>
       <c r="O22" s="0" t="n">
-        <v>0.319276779493778</v>
+        <v>0.137835472407283</v>
       </c>
       <c r="P22" s="0" t="n">
         <v>0.133333333333333</v>
@@ -5781,11 +5781,11 @@
       </c>
       <c r="Z22" s="0" t="n">
         <f aca="false">G22-O22</f>
-        <v>-0.178544076549733</v>
+        <v>0.00289723053676152</v>
       </c>
       <c r="AA22" s="0" t="n">
         <f aca="false">G22/O22</f>
-        <v>0.440785901083006</v>
+        <v>1.02101948421667</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5817,19 +5817,19 @@
         <v>0.108419363963469</v>
       </c>
       <c r="K23" s="0" t="n">
-        <v>9.7516593881523</v>
+        <v>9.75165938806811</v>
       </c>
       <c r="L23" s="0" t="n">
-        <v>0.132792281513392</v>
+        <v>0.132792281502401</v>
       </c>
       <c r="M23" s="0" t="n">
-        <v>2.74095444932433</v>
+        <v>2.74095444902806</v>
       </c>
       <c r="N23" s="0" t="n">
-        <v>0.958337744666063</v>
+        <v>0.958337744656562</v>
       </c>
       <c r="O23" s="0" t="n">
-        <v>0.300489826258597</v>
+        <v>0.146214178147781</v>
       </c>
       <c r="P23" s="0" t="n">
         <v>0.133333333333333</v>
@@ -5839,11 +5839,11 @@
       </c>
       <c r="Z23" s="0" t="n">
         <f aca="false">G23-O23</f>
-        <v>-0.146094401195743</v>
+        <v>0.0081812469150731</v>
       </c>
       <c r="AA23" s="0" t="n">
         <f aca="false">G23/O23</f>
-        <v>0.513812487381798</v>
+        <v>1.05595385494561</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5875,33 +5875,33 @@
         <v>0.0935406994006564</v>
       </c>
       <c r="K24" s="0" t="n">
-        <v>9.57815966588437</v>
+        <v>9.57815966578139</v>
       </c>
       <c r="L24" s="0" t="n">
-        <v>0.436042718626652</v>
+        <v>0.436042718622139</v>
       </c>
       <c r="M24" s="0" t="n">
-        <v>3.51817867307655</v>
+        <v>3.51817867276038</v>
       </c>
       <c r="N24" s="0" t="n">
-        <v>4.02426178967994</v>
+        <v>4.02426178970001</v>
       </c>
       <c r="O24" s="0" t="n">
-        <v>0.408407056813302</v>
+        <v>0.199286978226589</v>
       </c>
       <c r="P24" s="0" t="n">
-        <v>0.0666666666666666</v>
+        <v>0.0666666666666667</v>
       </c>
       <c r="Q24" s="0" t="n">
         <v>0.0934881630754491</v>
       </c>
       <c r="Z24" s="0" t="n">
         <f aca="false">G24-O24</f>
-        <v>-0.198888514465644</v>
+        <v>0.010231564121069</v>
       </c>
       <c r="AA24" s="0" t="n">
         <f aca="false">G24/O24</f>
-        <v>0.513014011027328</v>
+        <v>1.05134085634755</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5933,33 +5933,33 @@
         <v>0.0560280328732665</v>
       </c>
       <c r="K25" s="0" t="n">
-        <v>9.5407726029904</v>
+        <v>9.54077260289385</v>
       </c>
       <c r="L25" s="0" t="n">
-        <v>0.369160619202057</v>
+        <v>0.369160619165081</v>
       </c>
       <c r="M25" s="0" t="n">
-        <v>3.59949106695914</v>
+        <v>3.59949106666128</v>
       </c>
       <c r="N25" s="0" t="n">
-        <v>5.21215970929249</v>
+        <v>5.21215970936458</v>
       </c>
       <c r="O25" s="0" t="n">
-        <v>0.472374999549377</v>
+        <v>0.244000767421867</v>
       </c>
       <c r="P25" s="0" t="n">
-        <v>0.0666666666666666</v>
+        <v>0.0666666666666667</v>
       </c>
       <c r="Q25" s="0" t="n">
         <v>0.0558274656858018</v>
       </c>
       <c r="Z25" s="0" t="n">
         <f aca="false">G25-O25</f>
-        <v>-0.218582734459546</v>
+        <v>0.00979149766796397</v>
       </c>
       <c r="AA25" s="0" t="n">
         <f aca="false">G25/O25</f>
-        <v>0.537268622031091</v>
+        <v>1.04012896259066</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5991,33 +5991,33 @@
         <v>0.0504663446864701</v>
       </c>
       <c r="K26" s="0" t="n">
-        <v>9.58229371737259</v>
+        <v>9.58229371729561</v>
       </c>
       <c r="L26" s="0" t="n">
-        <v>0.372508636400993</v>
+        <v>0.372508636410143</v>
       </c>
       <c r="M26" s="0" t="n">
-        <v>3.47982433517898</v>
+        <v>3.47982433482808</v>
       </c>
       <c r="N26" s="0" t="n">
-        <v>1.66162918335067</v>
+        <v>1.66162918335</v>
       </c>
       <c r="O26" s="0" t="n">
-        <v>0.427164200264636</v>
+        <v>0.18733524421998</v>
       </c>
       <c r="P26" s="0" t="n">
-        <v>0.0666666666666666</v>
+        <v>0.0666666666666667</v>
       </c>
       <c r="Q26" s="0" t="n">
         <v>0.0502815855346934</v>
       </c>
       <c r="Z26" s="0" t="n">
         <f aca="false">G26-O26</f>
-        <v>-0.23502734348329</v>
+        <v>0.00480161256136552</v>
       </c>
       <c r="AA26" s="0" t="n">
         <f aca="false">G26/O26</f>
-        <v>0.449796253202665</v>
+        <v>1.02563112233023</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6049,33 +6049,33 @@
         <v>0.132395944544462</v>
       </c>
       <c r="K27" s="0" t="n">
-        <v>9.97355964585255</v>
+        <v>9.97355964577886</v>
       </c>
       <c r="L27" s="0" t="n">
-        <v>0.541103269320975</v>
+        <v>0.541103269322915</v>
       </c>
       <c r="M27" s="0" t="n">
-        <v>6.33815840527822</v>
+        <v>6.33815840495105</v>
       </c>
       <c r="N27" s="0" t="n">
-        <v>2.9322196093669</v>
+        <v>2.93221960939441</v>
       </c>
       <c r="O27" s="0" t="n">
-        <v>0.278712289048524</v>
+        <v>0.133433879287831</v>
       </c>
       <c r="P27" s="0" t="n">
-        <v>0.0666666666666666</v>
+        <v>0.0666666666666667</v>
       </c>
       <c r="Q27" s="0" t="n">
         <v>0.131861224114095</v>
       </c>
       <c r="Z27" s="0" t="n">
         <f aca="false">G27-O27</f>
-        <v>-0.153161306970795</v>
+        <v>-0.00788289721010202</v>
       </c>
       <c r="AA27" s="0" t="n">
         <f aca="false">G27/O27</f>
-        <v>0.450468052579736</v>
+        <v>0.940922820709591</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6107,33 +6107,33 @@
         <v>0.06749898089984</v>
       </c>
       <c r="K28" s="0" t="n">
-        <v>10.27591487968</v>
+        <v>10.2759148795389</v>
       </c>
       <c r="L28" s="0" t="n">
-        <v>0.226664350937334</v>
+        <v>0.226664350847243</v>
       </c>
       <c r="M28" s="0" t="n">
-        <v>4.35314519039287</v>
+        <v>4.35314519004044</v>
       </c>
       <c r="N28" s="0" t="n">
-        <v>1.81272308517957</v>
+        <v>1.81272308523842</v>
       </c>
       <c r="O28" s="0" t="n">
-        <v>0.400896016697491</v>
+        <v>0.181236751600355</v>
       </c>
       <c r="P28" s="0" t="n">
-        <v>0.0666666666666666</v>
+        <v>0.0666666666666667</v>
       </c>
       <c r="Q28" s="0" t="n">
         <v>0.0672186749484113</v>
       </c>
       <c r="Z28" s="0" t="n">
         <f aca="false">G28-O28</f>
-        <v>-0.219401375744824</v>
+        <v>0.000257889352312218</v>
       </c>
       <c r="AA28" s="0" t="n">
         <f aca="false">G28/O28</f>
-        <v>0.452722485116682</v>
+        <v>1.00142294181525</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6165,33 +6165,33 @@
         <v>0.0707772723071184</v>
       </c>
       <c r="K29" s="0" t="n">
-        <v>9.73520926480285</v>
+        <v>9.73520926472744</v>
       </c>
       <c r="L29" s="0" t="n">
-        <v>0.502658211530539</v>
+        <v>0.502658211550618</v>
       </c>
       <c r="M29" s="0" t="n">
-        <v>8.20126807489128</v>
+        <v>8.20126807459534</v>
       </c>
       <c r="N29" s="0" t="n">
-        <v>9.82551899063016</v>
+        <v>9.82551899074444</v>
       </c>
       <c r="O29" s="0" t="n">
-        <v>0.404487154938849</v>
+        <v>0.199468325203691</v>
       </c>
       <c r="P29" s="0" t="n">
-        <v>0.0666666666666666</v>
+        <v>0.0666666666666667</v>
       </c>
       <c r="Q29" s="0" t="n">
         <v>0.070681909716979</v>
       </c>
       <c r="Z29" s="0" t="n">
         <f aca="false">G29-O29</f>
-        <v>-0.21167631502141</v>
+        <v>-0.0066574852862521</v>
       </c>
       <c r="AA29" s="0" t="n">
         <f aca="false">G29/O29</f>
-        <v>0.476679759945871</v>
+        <v>0.966623847272725</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6223,33 +6223,33 @@
         <v>0.0929963707974684</v>
       </c>
       <c r="K30" s="0" t="n">
-        <v>10.375883448777</v>
+        <v>10.375883448419</v>
       </c>
       <c r="L30" s="0" t="n">
-        <v>0.723572911928403</v>
+        <v>0.72357291177564</v>
       </c>
       <c r="M30" s="0" t="n">
-        <v>9.8623499764286</v>
+        <v>9.86234997630688</v>
       </c>
       <c r="N30" s="0" t="n">
-        <v>9.35043421747193</v>
+        <v>9.35043421752373</v>
       </c>
       <c r="O30" s="0" t="n">
-        <v>0.490859722460684</v>
+        <v>0.299170679753849</v>
       </c>
       <c r="P30" s="0" t="n">
-        <v>0.0666666666666666</v>
+        <v>0.0666666666666667</v>
       </c>
       <c r="Q30" s="0" t="n">
         <v>0.0928822237069483</v>
       </c>
       <c r="Z30" s="0" t="n">
         <f aca="false">G30-O30</f>
-        <v>-0.191743725716685</v>
+        <v>-5.46830098496209E-005</v>
       </c>
       <c r="AA30" s="0" t="n">
         <f aca="false">G30/O30</f>
-        <v>0.60937164541537</v>
+        <v>0.99981721801784</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6281,33 +6281,33 @@
         <v>0.12282721918288</v>
       </c>
       <c r="K31" s="0" t="n">
-        <v>10.3073872645795</v>
+        <v>10.3073872643831</v>
       </c>
       <c r="L31" s="0" t="n">
-        <v>0.435897117806217</v>
+        <v>0.435897117661492</v>
       </c>
       <c r="M31" s="0" t="n">
-        <v>8.69449448638042</v>
+        <v>8.69449448637028</v>
       </c>
       <c r="N31" s="0" t="n">
-        <v>6.34971699520344</v>
+        <v>6.34971699530435</v>
       </c>
       <c r="O31" s="0" t="n">
-        <v>0.290549759816216</v>
+        <v>0.122490554451217</v>
       </c>
       <c r="P31" s="0" t="n">
-        <v>0.0666666666666666</v>
+        <v>0.0666666666666667</v>
       </c>
       <c r="Q31" s="0" t="n">
         <v>0.122347609128189</v>
       </c>
       <c r="Z31" s="0" t="n">
         <f aca="false">G31-O31</f>
-        <v>-0.167634137838604</v>
+        <v>0.000425067526394915</v>
       </c>
       <c r="AA31" s="0" t="n">
         <f aca="false">G31/O31</f>
-        <v>0.423044995994355</v>
+        <v>1.00347020656653</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6339,33 +6339,33 @@
         <v>0.0538742732328352</v>
       </c>
       <c r="K32" s="0" t="n">
-        <v>9.65266707378227</v>
+        <v>9.65266707372911</v>
       </c>
       <c r="L32" s="0" t="n">
-        <v>0.374680226248979</v>
+        <v>0.374680226248751</v>
       </c>
       <c r="M32" s="0" t="n">
-        <v>6.16066518452458</v>
+        <v>6.16066518429371</v>
       </c>
       <c r="N32" s="0" t="n">
-        <v>4.01312466952388</v>
+        <v>4.01312466951388</v>
       </c>
       <c r="O32" s="0" t="n">
-        <v>0.297530408550826</v>
+        <v>0.101251108168362</v>
       </c>
       <c r="P32" s="0" t="n">
-        <v>0.0666666666666666</v>
+        <v>0.0666666666666667</v>
       </c>
       <c r="Q32" s="0" t="n">
         <v>0.0537167217072707</v>
       </c>
       <c r="Z32" s="0" t="n">
         <f aca="false">G32-O32</f>
-        <v>-0.191073955900965</v>
+        <v>0.00520534448149916</v>
       </c>
       <c r="AA32" s="0" t="n">
         <f aca="false">G32/O32</f>
-        <v>0.357800243573004</v>
+        <v>1.05141024701521</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6397,19 +6397,19 @@
         <v>0.0424852555052711</v>
       </c>
       <c r="K33" s="0" t="n">
-        <v>9.76238474265376</v>
+        <v>9.76238474260823</v>
       </c>
       <c r="L33" s="0" t="n">
-        <v>0.337189549804219</v>
+        <v>0.337189549804914</v>
       </c>
       <c r="M33" s="0" t="n">
-        <v>4.8188456663579</v>
+        <v>4.81884566621118</v>
       </c>
       <c r="N33" s="0" t="n">
-        <v>2.34493401481827</v>
+        <v>2.34493401481912</v>
       </c>
       <c r="O33" s="0" t="n">
-        <v>0.368776676955331</v>
+        <v>0.117659478050257</v>
       </c>
       <c r="P33" s="0" t="n">
         <v>0.133333333333333</v>
@@ -6419,11 +6419,11 @@
       </c>
       <c r="Z33" s="0" t="n">
         <f aca="false">G33-O33</f>
-        <v>-0.244730531696015</v>
+        <v>0.00638666720905869</v>
       </c>
       <c r="AA33" s="0" t="n">
         <f aca="false">G33/O33</f>
-        <v>0.336371991535521</v>
+        <v>1.05428094119482</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6455,19 +6455,19 @@
         <v>0.0846093745066893</v>
       </c>
       <c r="K34" s="0" t="n">
-        <v>9.30298613879271</v>
+        <v>9.30298613872565</v>
       </c>
       <c r="L34" s="0" t="n">
-        <v>0.358331951450941</v>
+        <v>0.358331951446714</v>
       </c>
       <c r="M34" s="0" t="n">
-        <v>6.89944902940978</v>
+        <v>6.8994490291508</v>
       </c>
       <c r="N34" s="0" t="n">
-        <v>3.42020869808491</v>
+        <v>3.42020869809306</v>
       </c>
       <c r="O34" s="0" t="n">
-        <v>0.344307835278509</v>
+        <v>0.149017985496212</v>
       </c>
       <c r="P34" s="0" t="n">
         <v>0.333333333333333</v>
@@ -6477,11 +6477,11 @@
       </c>
       <c r="Z34" s="0" t="n">
         <f aca="false">G34-O34</f>
-        <v>-0.201866296181607</v>
+        <v>-0.00657644639931026</v>
       </c>
       <c r="AA34" s="0" t="n">
         <f aca="false">G34/O34</f>
-        <v>0.413704030237017</v>
+        <v>0.955868102917836</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6513,33 +6513,33 @@
         <v>0.0438853506618676</v>
       </c>
       <c r="K35" s="0" t="n">
-        <v>9.6599191420816</v>
+        <v>9.65991914202685</v>
       </c>
       <c r="L35" s="0" t="n">
-        <v>0.260775026826099</v>
+        <v>0.260775026833613</v>
       </c>
       <c r="M35" s="0" t="n">
-        <v>5.51490519431326</v>
+        <v>5.51490519414624</v>
       </c>
       <c r="N35" s="0" t="n">
-        <v>2.25506231514568</v>
+        <v>2.25506231518027</v>
       </c>
       <c r="O35" s="0" t="n">
-        <v>0.470197038290156</v>
+        <v>0.204263736335038</v>
       </c>
       <c r="P35" s="0" t="n">
-        <v>0.0666666666666666</v>
+        <v>0.0666666666666667</v>
       </c>
       <c r="Q35" s="0" t="n">
         <v>0.043712896845031</v>
       </c>
       <c r="Z35" s="0" t="n">
         <f aca="false">G35-O35</f>
-        <v>-0.266137207901106</v>
+        <v>-0.000203905945988014</v>
       </c>
       <c r="AA35" s="0" t="n">
         <f aca="false">G35/O35</f>
-        <v>0.433987910964096</v>
+        <v>0.999001751609725</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6571,19 +6571,19 @@
         <v>0.0802136838077561</v>
       </c>
       <c r="K36" s="0" t="n">
-        <v>9.35230111304838</v>
+        <v>9.35230111299434</v>
       </c>
       <c r="L36" s="0" t="n">
-        <v>0.162514421873431</v>
+        <v>0.162514421866673</v>
       </c>
       <c r="M36" s="0" t="n">
-        <v>0.960621829982177</v>
+        <v>0.960621829737217</v>
       </c>
       <c r="N36" s="0" t="n">
-        <v>1.01577191212079</v>
+        <v>1.0157719121365</v>
       </c>
       <c r="O36" s="0" t="n">
-        <v>0.503905424190692</v>
+        <v>0.262192889182694</v>
       </c>
       <c r="P36" s="0" t="n">
         <v>0.4</v>
@@ -6593,11 +6593,11 @@
       </c>
       <c r="Z36" s="0" t="n">
         <f aca="false">G36-O36</f>
-        <v>-0.246308311883309</v>
+        <v>-0.00459577687531071</v>
       </c>
       <c r="AA36" s="0" t="n">
         <f aca="false">G36/O36</f>
-        <v>0.511201308700144</v>
+        <v>0.982471771489926</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6629,19 +6629,19 @@
         <v>0.0396455131995901</v>
       </c>
       <c r="K37" s="0" t="n">
-        <v>9.39489662723118</v>
+        <v>9.39489662718069</v>
       </c>
       <c r="L37" s="0" t="n">
-        <v>0.0636788401878483</v>
+        <v>0.0636788401864398</v>
       </c>
       <c r="M37" s="0" t="n">
-        <v>1.96395026587656</v>
+        <v>1.96395026566988</v>
       </c>
       <c r="N37" s="0" t="n">
-        <v>0.919628637225663</v>
+        <v>0.91962863720569</v>
       </c>
       <c r="O37" s="0" t="n">
-        <v>0.469289074478253</v>
+        <v>0.228715474379248</v>
       </c>
       <c r="P37" s="0" t="n">
         <v>1.8</v>
@@ -6651,11 +6651,11 @@
       </c>
       <c r="Z37" s="0" t="n">
         <f aca="false">G37-O37</f>
-        <v>-0.228591720342114</v>
+        <v>0.0119818797568909</v>
       </c>
       <c r="AA37" s="0" t="n">
         <f aca="false">G37/O37</f>
-        <v>0.512897843197696</v>
+        <v>1.05238770918063</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6687,33 +6687,33 @@
         <v>0.0690791801600568</v>
       </c>
       <c r="K38" s="0" t="n">
-        <v>9.72335690366563</v>
+        <v>9.72335690361884</v>
       </c>
       <c r="L38" s="0" t="n">
-        <v>0.462802085152889</v>
+        <v>0.462802085152532</v>
       </c>
       <c r="M38" s="0" t="n">
-        <v>4.55960782996779</v>
+        <v>4.55960782978672</v>
       </c>
       <c r="N38" s="0" t="n">
-        <v>1.67499567100423</v>
+        <v>1.67499567102409</v>
       </c>
       <c r="O38" s="0" t="n">
-        <v>0.428176295674841</v>
+        <v>0.164295550891395</v>
       </c>
       <c r="P38" s="0" t="n">
-        <v>0.0666666666666666</v>
+        <v>0.0666666666666667</v>
       </c>
       <c r="Q38" s="0" t="n">
         <v>0.0688299968573796</v>
       </c>
       <c r="Z38" s="0" t="n">
         <f aca="false">G38-O38</f>
-        <v>-0.264396691201863</v>
+        <v>-0.000515946418416929</v>
       </c>
       <c r="AA38" s="0" t="n">
         <f aca="false">G38/O38</f>
-        <v>0.382505071222702</v>
+        <v>0.9968596446123</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6745,33 +6745,33 @@
         <v>0.0864920759201632</v>
       </c>
       <c r="K39" s="0" t="n">
-        <v>9.32570988852323</v>
+        <v>9.32570988843335</v>
       </c>
       <c r="L39" s="0" t="n">
-        <v>0.903592144187223</v>
+        <v>0.903592144184221</v>
       </c>
       <c r="M39" s="0" t="n">
-        <v>7.49876514085631</v>
+        <v>7.49876514072519</v>
       </c>
       <c r="N39" s="0" t="n">
-        <v>13.3962135225361</v>
+        <v>13.3962135225097</v>
       </c>
       <c r="O39" s="0" t="n">
-        <v>0.452616831879695</v>
+        <v>0.247211672080316</v>
       </c>
       <c r="P39" s="0" t="n">
-        <v>0.0666666666666666</v>
+        <v>0.0666666666666667</v>
       </c>
       <c r="Q39" s="0" t="n">
         <v>0.086306492838926</v>
       </c>
       <c r="Z39" s="0" t="n">
         <f aca="false">G39-O39</f>
-        <v>-0.200937039011485</v>
+        <v>0.00446812078789391</v>
       </c>
       <c r="AA39" s="0" t="n">
         <f aca="false">G39/O39</f>
-        <v>0.556054868359615</v>
+        <v>1.01807406887504</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6803,19 +6803,19 @@
         <v>0.0421983031440559</v>
       </c>
       <c r="K40" s="0" t="n">
-        <v>10.0482578746681</v>
+        <v>10.0482578745605</v>
       </c>
       <c r="L40" s="0" t="n">
-        <v>0.684081372691903</v>
+        <v>0.68408137269082</v>
       </c>
       <c r="M40" s="0" t="n">
-        <v>5.16608361432852</v>
+        <v>5.16608361389296</v>
       </c>
       <c r="N40" s="0" t="n">
-        <v>5.30703641087051</v>
+        <v>5.30703641092204</v>
       </c>
       <c r="O40" s="0" t="n">
-        <v>0.412460805527402</v>
+        <v>0.201546563670917</v>
       </c>
       <c r="P40" s="0" t="n">
         <v>0.133333333333333</v>
@@ -6825,11 +6825,11 @@
       </c>
       <c r="Z40" s="0" t="n">
         <f aca="false">G40-O40</f>
-        <v>-0.200062571534826</v>
+        <v>0.010851670321659</v>
       </c>
       <c r="AA40" s="0" t="n">
         <f aca="false">G40/O40</f>
-        <v>0.514953738988577</v>
+        <v>1.05384200119322</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6861,19 +6861,19 @@
         <v>0.0448263132636864</v>
       </c>
       <c r="K41" s="0" t="n">
-        <v>9.85148828265643</v>
+        <v>9.85148828260121</v>
       </c>
       <c r="L41" s="0" t="n">
-        <v>0.0851088806920097</v>
+        <v>0.0851088806899527</v>
       </c>
       <c r="M41" s="0" t="n">
-        <v>2.88078957825341</v>
+        <v>2.88078957799164</v>
       </c>
       <c r="N41" s="0" t="n">
-        <v>0.254858901068718</v>
+        <v>0.254858901038165</v>
       </c>
       <c r="O41" s="0" t="n">
-        <v>0.408141797303105</v>
+        <v>0.163835015704659</v>
       </c>
       <c r="P41" s="0" t="n">
         <v>0.133333333333333</v>
@@ -6883,11 +6883,11 @@
       </c>
       <c r="Z41" s="0" t="n">
         <f aca="false">G41-O41</f>
-        <v>-0.235697877877016</v>
+        <v>0.00860890372142997</v>
       </c>
       <c r="AA41" s="0" t="n">
         <f aca="false">G41/O41</f>
-        <v>0.422509825177313</v>
+        <v>1.05254617692319</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6919,33 +6919,33 @@
         <v>0.0667642767484695</v>
       </c>
       <c r="K42" s="0" t="n">
-        <v>9.89244311356103</v>
+        <v>9.89244311351117</v>
       </c>
       <c r="L42" s="0" t="n">
-        <v>0.0387142441741871</v>
+        <v>0.0387142441712681</v>
       </c>
       <c r="M42" s="0" t="n">
-        <v>2.51782789540968</v>
+        <v>2.51782789519086</v>
       </c>
       <c r="N42" s="0" t="n">
-        <v>0.244866479633782</v>
+        <v>0.244866479616607</v>
       </c>
       <c r="O42" s="0" t="n">
-        <v>0.395124130487962</v>
+        <v>0.170905610033603</v>
       </c>
       <c r="P42" s="0" t="n">
-        <v>0.0666666666666666</v>
+        <v>0.0666666666666667</v>
       </c>
       <c r="Q42" s="0" t="n">
         <v>0.066552950640639</v>
       </c>
       <c r="Z42" s="0" t="n">
         <f aca="false">G42-O42</f>
-        <v>-0.213773537772664</v>
+        <v>0.0104449826816952</v>
       </c>
       <c r="AA42" s="0" t="n">
         <f aca="false">G42/O42</f>
-        <v>0.458971190879528</v>
+        <v>1.0611155051004</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6977,19 +6977,19 @@
         <v>0.0427176599030067</v>
       </c>
       <c r="K43" s="0" t="n">
-        <v>9.87545718027071</v>
+        <v>9.87545718021653</v>
       </c>
       <c r="L43" s="0" t="n">
-        <v>0.151114728686098</v>
+        <v>0.15111472869378</v>
       </c>
       <c r="M43" s="0" t="n">
-        <v>3.13206428352015</v>
+        <v>3.13206428333766</v>
       </c>
       <c r="N43" s="0" t="n">
-        <v>1.4045537951636</v>
+        <v>1.40455379521852</v>
       </c>
       <c r="O43" s="0" t="n">
-        <v>0.402687283410714</v>
+        <v>0.179943066972854</v>
       </c>
       <c r="P43" s="0" t="n">
         <v>2</v>
@@ -6999,11 +6999,11 @@
       </c>
       <c r="Z43" s="0" t="n">
         <f aca="false">G43-O43</f>
-        <v>-0.214440959843137</v>
+        <v>0.00830325659472303</v>
       </c>
       <c r="AA43" s="0" t="n">
         <f aca="false">G43/O43</f>
-        <v>0.467475212957193</v>
+        <v>1.04614379833804</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7035,33 +7035,33 @@
         <v>0.0843329542486975</v>
       </c>
       <c r="K44" s="0" t="n">
-        <v>9.74140891038357</v>
+        <v>9.74140891033492</v>
       </c>
       <c r="L44" s="0" t="n">
-        <v>0.312554641328927</v>
+        <v>0.312554641336745</v>
       </c>
       <c r="M44" s="0" t="n">
-        <v>3.56998346816583</v>
+        <v>3.56998346803283</v>
       </c>
       <c r="N44" s="0" t="n">
-        <v>1.20151963887404</v>
+        <v>1.20151963886364</v>
       </c>
       <c r="O44" s="0" t="n">
-        <v>0.325583251495713</v>
+        <v>0.128134571736973</v>
       </c>
       <c r="P44" s="0" t="n">
-        <v>0.0666666666666666</v>
+        <v>0.0666666666666667</v>
       </c>
       <c r="Q44" s="0" t="n">
         <v>0.0839147897931143</v>
       </c>
       <c r="Z44" s="0" t="n">
         <f aca="false">G44-O44</f>
-        <v>-0.192444092222121</v>
+        <v>0.00500458753661917</v>
       </c>
       <c r="AA44" s="0" t="n">
         <f aca="false">G44/O44</f>
-        <v>0.408925086477752</v>
+        <v>1.03905727758541</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7093,33 +7093,33 @@
         <v>0.0404188381346525</v>
       </c>
       <c r="K45" s="0" t="n">
-        <v>9.92974199280129</v>
+        <v>9.92974199275281</v>
       </c>
       <c r="L45" s="0" t="n">
-        <v>0.371947825530238</v>
+        <v>0.371947825534425</v>
       </c>
       <c r="M45" s="0" t="n">
-        <v>2.98740825534682</v>
+        <v>2.98740825515585</v>
       </c>
       <c r="N45" s="0" t="n">
-        <v>2.01991174454844</v>
+        <v>2.01991174454512</v>
       </c>
       <c r="O45" s="0" t="n">
-        <v>0.421081423509212</v>
+        <v>0.163382020561028</v>
       </c>
       <c r="P45" s="0" t="n">
-        <v>0.266666666666666</v>
+        <v>0.266666666666667</v>
       </c>
       <c r="Q45" s="0" t="n">
         <v>0.0401967406743995</v>
       </c>
       <c r="Z45" s="0" t="n">
         <f aca="false">G45-O45</f>
-        <v>-0.252976729218696</v>
+        <v>0.00472267372948815</v>
       </c>
       <c r="AA45" s="0" t="n">
         <f aca="false">G45/O45</f>
-        <v>0.399221349850971</v>
+        <v>1.02890571259476</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7151,33 +7151,33 @@
         <v>0.0417846309056312</v>
       </c>
       <c r="K46" s="0" t="n">
-        <v>10.1060710552883</v>
+        <v>10.1060710551688</v>
       </c>
       <c r="L46" s="0" t="n">
-        <v>1.16533791521854</v>
+        <v>1.16533791515039</v>
       </c>
       <c r="M46" s="0" t="n">
-        <v>-2.03166997821993</v>
+        <v>-2.03166997837283</v>
       </c>
       <c r="N46" s="0" t="n">
-        <v>24.0783400158639</v>
+        <v>24.0783400158693</v>
       </c>
       <c r="O46" s="0" t="n">
-        <v>0.480192699158245</v>
+        <v>0.202869398510243</v>
       </c>
       <c r="P46" s="0" t="n">
-        <v>0.666666666666666</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="Q46" s="0" t="n">
         <v>0.0416459552165367</v>
       </c>
       <c r="Z46" s="0" t="n">
         <f aca="false">G46-O46</f>
-        <v>-0.272164890342935</v>
+        <v>0.00515841030506659</v>
       </c>
       <c r="AA46" s="0" t="n">
         <f aca="false">G46/O46</f>
-        <v>0.433217350409477</v>
+        <v>1.025427247002</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7209,19 +7209,19 @@
         <v>0.0892512460089283</v>
       </c>
       <c r="K47" s="0" t="n">
-        <v>10.2298441773145</v>
+        <v>10.2298441772489</v>
       </c>
       <c r="L47" s="0" t="n">
-        <v>0.486359853479414</v>
+        <v>0.486359853477498</v>
       </c>
       <c r="M47" s="0" t="n">
-        <v>18.8619357555997</v>
+        <v>18.8619357554836</v>
       </c>
       <c r="N47" s="0" t="n">
-        <v>10.684135058195</v>
+        <v>10.6841350582646</v>
       </c>
       <c r="O47" s="0" t="n">
-        <v>0.556116170199763</v>
+        <v>0.340269856193995</v>
       </c>
       <c r="P47" s="0" t="n">
         <v>0.2</v>
@@ -7231,11 +7231,11 @@
       </c>
       <c r="Z47" s="0" t="n">
         <f aca="false">G47-O47</f>
-        <v>-0.208522105269981</v>
+        <v>0.00732420873578721</v>
       </c>
       <c r="AA47" s="0" t="n">
         <f aca="false">G47/O47</f>
-        <v>0.625038586461031</v>
+        <v>1.02152470635428</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7267,33 +7267,33 @@
         <v>0.0450758230874767</v>
       </c>
       <c r="K48" s="0" t="n">
-        <v>10.0463682626599</v>
+        <v>10.0463682624609</v>
       </c>
       <c r="L48" s="0" t="n">
-        <v>0.271951243699172</v>
+        <v>0.271951243636737</v>
       </c>
       <c r="M48" s="0" t="n">
-        <v>56.4355148391124</v>
+        <v>56.4355148391448</v>
       </c>
       <c r="N48" s="0" t="n">
-        <v>0.517715758100765</v>
+        <v>0.517715758094245</v>
       </c>
       <c r="O48" s="0" t="n">
-        <v>0.420448859536435</v>
+        <v>0.143716602486949</v>
       </c>
       <c r="P48" s="0" t="n">
-        <v>0.0666666666666666</v>
+        <v>0.0666666666666667</v>
       </c>
       <c r="Q48" s="0" t="n">
         <v>0.0447914528999327</v>
       </c>
       <c r="Z48" s="0" t="n">
         <f aca="false">G48-O48</f>
-        <v>-0.272858112644317</v>
+        <v>0.00387414440516884</v>
       </c>
       <c r="AA48" s="0" t="n">
         <f aca="false">G48/O48</f>
-        <v>0.35103138834731</v>
+        <v>1.02695683267019</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7325,33 +7325,33 @@
         <v>0.158938183132689</v>
       </c>
       <c r="K49" s="0" t="n">
-        <v>10.0436759110302</v>
+        <v>10.0436759106415</v>
       </c>
       <c r="L49" s="0" t="n">
-        <v>0.0549129354634171</v>
+        <v>0.0549129352952858</v>
       </c>
       <c r="M49" s="0" t="n">
-        <v>57.0580826399528</v>
+        <v>57.0580826399788</v>
       </c>
       <c r="N49" s="0" t="n">
-        <v>0.264524760905166</v>
+        <v>0.264524760886076</v>
       </c>
       <c r="O49" s="0" t="n">
-        <v>0.3317575315548</v>
+        <v>0.181549370187766</v>
       </c>
       <c r="P49" s="0" t="n">
-        <v>0.0666666666666666</v>
+        <v>0.0666666666666667</v>
       </c>
       <c r="Q49" s="0" t="n">
         <v>0.158440482417033</v>
       </c>
       <c r="Z49" s="0" t="n">
         <f aca="false">G49-O49</f>
-        <v>-0.157575409309037</v>
+        <v>-0.00736724794200297</v>
       </c>
       <c r="AA49" s="0" t="n">
         <f aca="false">G49/O49</f>
-        <v>0.525028388743577</v>
+        <v>0.959420140458854</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7383,50 +7383,50 @@
         <v>0.160999812301726</v>
       </c>
       <c r="K50" s="0" t="n">
-        <v>9.9315642094902</v>
+        <v>9.93156420928597</v>
       </c>
       <c r="L50" s="0" t="n">
-        <v>0.761767802342152</v>
+        <v>0.761767802309823</v>
       </c>
       <c r="M50" s="0" t="n">
-        <v>39.9057033329317</v>
+        <v>39.9057033328904</v>
       </c>
       <c r="N50" s="0" t="n">
-        <v>25.0946408711248</v>
+        <v>25.0946408712118</v>
       </c>
       <c r="O50" s="0" t="n">
-        <v>0.378683238983267</v>
+        <v>0.211517523944937</v>
       </c>
       <c r="P50" s="0" t="n">
-        <v>0.0666666666666666</v>
+        <v>0.0666666666666667</v>
       </c>
       <c r="Q50" s="0" t="n">
         <v>0.160885227447645</v>
       </c>
       <c r="Z50" s="0" t="n">
         <f aca="false">G50-O50</f>
-        <v>-0.166329918711761</v>
+        <v>0.000835796326568938</v>
       </c>
       <c r="AA50" s="0" t="n">
         <f aca="false">G50/O50</f>
-        <v>0.560767677074003</v>
+        <v>1.00395142828349</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K51" s="0" t="n">
-        <v>8.76900245189471</v>
+        <v>8.76900245179886</v>
       </c>
       <c r="L51" s="0" t="n">
-        <v>0.259977571482692</v>
+        <v>0.259977571477402</v>
       </c>
       <c r="M51" s="0" t="n">
-        <v>0.00314435847929565</v>
+        <v>0.00314435837326041</v>
       </c>
       <c r="N51" s="0" t="n">
-        <v>1.52473656693612</v>
+        <v>1.52473656655134</v>
       </c>
       <c r="O51" s="0" t="n">
-        <v>0.611424409793513</v>
+        <v>0.175558239483823</v>
       </c>
       <c r="P51" s="0" t="n">
         <v>2.6865671641791</v>
@@ -7436,7 +7436,7 @@
       </c>
       <c r="Z51" s="0" t="n">
         <f aca="false">G51-O51</f>
-        <v>-0.611424409793513</v>
+        <v>-0.175558239483823</v>
       </c>
       <c r="AA51" s="0" t="n">
         <f aca="false">G51/O51</f>
